--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDAA7F6-1DDB-4AB2-BA1B-E94CE96D7B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5203CA4E-FE75-48BE-8541-4DC3AE3B2415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Term-1" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="355">
   <si>
     <t>#</t>
   </si>
@@ -537,9 +537,6 @@
     <t>Feed-30 bags</t>
   </si>
   <si>
-    <t>72 Days</t>
-  </si>
-  <si>
     <t>Cheruvu Pani</t>
   </si>
   <si>
@@ -549,9 +546,6 @@
     <t>Van Kirayi</t>
   </si>
   <si>
-    <t>58 Days</t>
-  </si>
-  <si>
     <t>Big Tank - Full</t>
   </si>
   <si>
@@ -588,9 +582,6 @@
     <t>Current Bill, Assam Salary etc</t>
   </si>
   <si>
-    <t>67 Days</t>
-  </si>
-  <si>
     <t>Small Tank-1068 kg-260 rate-92 count</t>
   </si>
   <si>
@@ -687,9 +678,6 @@
     <t>10 tons feed so far</t>
   </si>
   <si>
-    <t>73 Days</t>
-  </si>
-  <si>
     <t>Term-7</t>
   </si>
   <si>
@@ -810,9 +798,6 @@
     <t>1st Middle: Tones 2149.5-Rs.245 Count-110</t>
   </si>
   <si>
-    <t>79 Days</t>
-  </si>
-  <si>
     <t>Term-8</t>
   </si>
   <si>
@@ -828,9 +813,6 @@
     <t>750000 - From Gudur</t>
   </si>
   <si>
-    <t>65 Days</t>
-  </si>
-  <si>
     <t>Big Tank-Final-5220T-260R-100C</t>
   </si>
   <si>
@@ -864,12 +846,6 @@
     <t>Term-9</t>
   </si>
   <si>
-    <t>48 Days</t>
-  </si>
-  <si>
-    <t>78 Days</t>
-  </si>
-  <si>
     <t>Big Tank - Final - 67C-280R-2425T</t>
   </si>
   <si>
@@ -960,9 +936,6 @@
     <t>Estimation :</t>
   </si>
   <si>
-    <t>62 Days</t>
-  </si>
-  <si>
     <t>Term-10</t>
   </si>
   <si>
@@ -1104,9 +1077,6 @@
     <t>from Kakinada-9L (990 ballons)</t>
   </si>
   <si>
-    <t>31 Days</t>
-  </si>
-  <si>
     <t>virus</t>
   </si>
   <si>
@@ -1116,9 +1086,6 @@
     <t>Feb2026 - Apr2026</t>
   </si>
   <si>
-    <t>34 Days</t>
-  </si>
-  <si>
     <t>Big Tank Full</t>
   </si>
   <si>
@@ -1129,6 +1096,36 @@
   </si>
   <si>
     <t>Feed-2.5T</t>
+  </si>
+  <si>
+    <t>72 days</t>
+  </si>
+  <si>
+    <t>58 days</t>
+  </si>
+  <si>
+    <t>67 days</t>
+  </si>
+  <si>
+    <t>79 days</t>
+  </si>
+  <si>
+    <t>65 days</t>
+  </si>
+  <si>
+    <t>78 days</t>
+  </si>
+  <si>
+    <t>48 days</t>
+  </si>
+  <si>
+    <t>62 days</t>
+  </si>
+  <si>
+    <t>34 days</t>
+  </si>
+  <si>
+    <t>31 days</t>
   </si>
 </sst>
 </file>
@@ -2190,64 +2187,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2268,6 +2207,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2281,6 +2226,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2301,6 +2250,54 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -7949,7 +7946,7 @@
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7973,28 +7970,28 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="161" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
+      <c r="B1" s="146" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="151">
+      <c r="H1" s="149">
         <v>45076</v>
       </c>
-      <c r="I1" s="152"/>
+      <c r="I1" s="150"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="164">
+      <c r="K1" s="151">
         <f>M2-E2</f>
         <v>-782674</v>
       </c>
-      <c r="L1" s="165"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
@@ -8003,8 +8000,8 @@
         <f>SUM(A5:A105)</f>
         <v>473100</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -8016,10 +8013,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="153" t="s">
-        <v>338</v>
-      </c>
-      <c r="I2" s="168"/>
+      <c r="H2" s="155" t="s">
+        <v>329</v>
+      </c>
+      <c r="I2" s="156"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -8032,25 +8029,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="155" t="s">
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="169" t="s">
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="172"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -8116,8 +8113,8 @@
         <v>120</v>
       </c>
       <c r="I5" s="49" t="str">
-        <f>IF(ISBLANK(G5),"",CONCATENATE("(",G5-$H$1+1," days)"))</f>
-        <v>(51 days)</v>
+        <f>IF(ISBLANK(G5),"",CONCATENATE(G5-$H$1+1," days"))</f>
+        <v>51 days</v>
       </c>
       <c r="J5" s="21">
         <v>1</v>
@@ -8157,8 +8154,8 @@
         <v>108</v>
       </c>
       <c r="I6" s="49" t="str">
-        <f t="shared" ref="I6:I8" si="0">IF(ISBLANK(G6),"",CONCATENATE("(",G6-$H$1+1," days)"))</f>
-        <v>(58 days)</v>
+        <f t="shared" ref="I6:I8" si="0">IF(ISBLANK(G6),"",CONCATENATE(G6-$H$1+1," days"))</f>
+        <v>58 days</v>
       </c>
       <c r="J6" s="21">
         <v>2</v>
@@ -8201,7 +8198,7 @@
       </c>
       <c r="I7" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>(65 days)</v>
+        <v>65 days</v>
       </c>
       <c r="J7" s="21">
         <v>3</v>
@@ -8234,7 +8231,7 @@
       </c>
       <c r="I8" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>(75 days)</v>
+        <v>75 days</v>
       </c>
       <c r="J8" s="21">
         <v>4</v>
@@ -8343,11 +8340,11 @@
       <c r="F12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="149"/>
-      <c r="I12" s="150"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="166"/>
       <c r="J12" s="21">
         <v>8</v>
       </c>
@@ -8408,10 +8405,10 @@
       <c r="G14" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="153" t="s">
-        <v>339</v>
-      </c>
-      <c r="I14" s="168"/>
+      <c r="H14" s="155" t="s">
+        <v>330</v>
+      </c>
+      <c r="I14" s="156"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -8437,11 +8434,11 @@
       <c r="F15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="155" t="s">
+      <c r="G15" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -8504,8 +8501,8 @@
         <v>115</v>
       </c>
       <c r="I17" s="49" t="str">
-        <f>IF(ISBLANK(G17),"",CONCATENATE("(",G17-$H$13+1," days)"))</f>
-        <v>(50 days)</v>
+        <f>IF(ISBLANK(G17),"",CONCATENATE(G17-$H$13+1," days"))</f>
+        <v>50 days</v>
       </c>
       <c r="J17" s="21">
         <v>13</v>
@@ -8539,8 +8536,8 @@
         <v>105</v>
       </c>
       <c r="I18" s="49" t="str">
-        <f t="shared" ref="I18:I22" si="1">IF(ISBLANK(G18),"",CONCATENATE("(",G18-$H$13+1," days)"))</f>
-        <v>(56 days)</v>
+        <f t="shared" ref="I18:I20" si="1">IF(ISBLANK(G18),"",CONCATENATE(G18-$H$13+1," days"))</f>
+        <v>56 days</v>
       </c>
       <c r="J18" s="21">
         <v>14</v>
@@ -8573,7 +8570,7 @@
       </c>
       <c r="I19" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>(58 days)</v>
+        <v>58 days</v>
       </c>
       <c r="J19" s="21">
         <v>15</v>
@@ -8608,7 +8605,7 @@
       </c>
       <c r="I20" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>(60 days)</v>
+        <v>60 days</v>
       </c>
       <c r="J20" s="21">
         <v>16</v>
@@ -8664,7 +8661,7 @@
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I18:I22" si="2">IF(ISBLANK(G22),"",CONCATENATE("(",G22-$H$13+1," days)"))</f>
         <v/>
       </c>
       <c r="J22" s="21">
@@ -10754,7 +10751,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10776,34 +10773,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="161" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="163"/>
+      <c r="A1" s="146" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148"/>
       <c r="F1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="151">
+      <c r="G1" s="149">
         <v>45918</v>
       </c>
-      <c r="H1" s="152"/>
+      <c r="H1" s="150"/>
       <c r="I1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="164">
+      <c r="J1" s="151">
         <f>L2-D2</f>
         <v>979350</v>
       </c>
-      <c r="K1" s="165"/>
+      <c r="K1" s="152"/>
       <c r="L1" s="18"/>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
@@ -10815,10 +10812,10 @@
       <c r="F2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="153" t="s">
-        <v>268</v>
-      </c>
-      <c r="H2" s="168"/>
+      <c r="G2" s="155" t="s">
+        <v>350</v>
+      </c>
+      <c r="H2" s="156"/>
       <c r="I2" s="38"/>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -10831,25 +10828,25 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="155" t="s">
+      <c r="B3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="169" t="s">
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="170"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="172"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="160"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
@@ -10906,7 +10903,7 @@
         <v>288000</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F5" s="45">
         <v>45972</v>
@@ -10925,7 +10922,7 @@
         <v>45975</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L5" s="5">
         <v>496056</v>
@@ -10940,7 +10937,7 @@
         <v>45918</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D6" s="5">
         <v>17500</v>
@@ -10963,7 +10960,7 @@
         <v>45985</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L6" s="5">
         <v>644160</v>
@@ -10978,7 +10975,7 @@
         <v>45961</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D7" s="5">
         <v>996000</v>
@@ -11001,7 +10998,7 @@
         <v>45995</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="L7" s="5">
         <v>1136588</v>
@@ -11016,7 +11013,7 @@
         <v>45956</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D8" s="5">
         <v>15000</v>
@@ -11039,7 +11036,7 @@
         <v>45995</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L8" s="5">
         <v>244273.5</v>
@@ -11054,7 +11051,7 @@
         <v>45995</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D9" s="5">
         <v>100000</v>
@@ -11077,7 +11074,7 @@
         <v>46001</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L9" s="5">
         <v>3182.5</v>
@@ -11115,7 +11112,7 @@
         <v>46003</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L10" s="5">
         <v>6090</v>
@@ -11130,7 +11127,7 @@
         <v>45995</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D11" s="5">
         <v>34500</v>
@@ -11162,7 +11159,7 @@
         <v>45995</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D12" s="5">
         <v>30000</v>
@@ -11212,11 +11209,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
       <c r="E14" s="69"/>
-      <c r="F14" s="148" t="s">
+      <c r="F14" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="149"/>
-      <c r="H14" s="150"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="166"/>
       <c r="I14" s="21">
         <v>10</v>
       </c>
@@ -11236,10 +11233,10 @@
       <c r="F15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="151">
+      <c r="G15" s="149">
         <v>45918</v>
       </c>
-      <c r="H15" s="152"/>
+      <c r="H15" s="150"/>
       <c r="I15" s="21">
         <v>11</v>
       </c>
@@ -11259,10 +11256,10 @@
       <c r="F16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="153" t="s">
-        <v>268</v>
-      </c>
-      <c r="H16" s="154"/>
+      <c r="G16" s="155" t="s">
+        <v>350</v>
+      </c>
+      <c r="H16" s="167"/>
       <c r="I16" s="21">
         <v>12</v>
       </c>
@@ -11279,11 +11276,11 @@
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="155" t="s">
+      <c r="F17" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="156"/>
-      <c r="H17" s="157"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="168"/>
       <c r="I17" s="21">
         <v>13</v>
       </c>
@@ -11313,7 +11310,7 @@
         <v>14</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="5"/>
@@ -11591,13 +11588,13 @@
         <v>900000</v>
       </c>
       <c r="F31" s="93" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G31" s="86">
         <v>750000</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I31" s="86">
         <v>150000</v>
@@ -11618,24 +11615,24 @@
         <v>88</v>
       </c>
       <c r="G32" s="93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="158" t="s">
+      <c r="I32" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="158"/>
-      <c r="K32" s="159" t="s">
-        <v>253</v>
-      </c>
-      <c r="L32" s="160"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" s="145"/>
       <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D33" s="15" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E33" s="59">
         <f>G33*F33</f>
@@ -11650,13 +11647,13 @@
       <c r="H33" s="62">
         <v>240</v>
       </c>
-      <c r="I33" s="144">
+      <c r="I33" s="163">
         <f>G33*H33</f>
         <v>496056</v>
       </c>
-      <c r="J33" s="144"/>
+      <c r="J33" s="163"/>
       <c r="K33" s="85" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L33" s="136">
         <v>50000</v>
@@ -11665,7 +11662,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D34" s="15" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E34" s="59">
         <f t="shared" ref="E34:E39" si="2">G34*F34</f>
@@ -11680,11 +11677,11 @@
       <c r="H34" s="62">
         <v>300</v>
       </c>
-      <c r="I34" s="144">
+      <c r="I34" s="163">
         <f t="shared" ref="I34:I39" si="3">G34*H34</f>
         <v>644160</v>
       </c>
-      <c r="J34" s="144"/>
+      <c r="J34" s="163"/>
       <c r="K34" s="85" t="s">
         <v>143</v>
       </c>
@@ -11696,7 +11693,7 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B35" s="126"/>
       <c r="D35" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E35" s="59">
         <f t="shared" si="2"/>
@@ -11711,24 +11708,24 @@
       <c r="H35" s="62">
         <v>335</v>
       </c>
-      <c r="I35" s="144">
+      <c r="I35" s="163">
         <f t="shared" si="3"/>
         <v>1136588</v>
       </c>
-      <c r="J35" s="144"/>
+      <c r="J35" s="163"/>
       <c r="K35" s="85" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="L35" s="136">
         <v>500000</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D36" s="15" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E36" s="59">
         <f t="shared" si="2"/>
@@ -11743,13 +11740,13 @@
       <c r="H36" s="62">
         <v>285</v>
       </c>
-      <c r="I36" s="144">
+      <c r="I36" s="163">
         <f t="shared" si="3"/>
         <v>244273.5</v>
       </c>
-      <c r="J36" s="144"/>
+      <c r="J36" s="163"/>
       <c r="K36" s="85" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L36" s="136">
         <v>500000</v>
@@ -11758,7 +11755,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D37" s="15" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E37" s="59">
         <f t="shared" si="2"/>
@@ -11773,13 +11770,13 @@
       <c r="H37" s="62">
         <v>335</v>
       </c>
-      <c r="I37" s="144">
+      <c r="I37" s="163">
         <f t="shared" si="3"/>
         <v>3182.5</v>
       </c>
-      <c r="J37" s="144"/>
+      <c r="J37" s="163"/>
       <c r="K37" s="85" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="L37" s="136">
         <v>300000</v>
@@ -11788,7 +11785,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D38" s="15" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E38" s="59">
         <f t="shared" si="2"/>
@@ -11803,13 +11800,13 @@
       <c r="H38" s="62">
         <v>290</v>
       </c>
-      <c r="I38" s="144">
+      <c r="I38" s="163">
         <f t="shared" si="3"/>
         <v>6090</v>
       </c>
-      <c r="J38" s="144"/>
+      <c r="J38" s="163"/>
       <c r="K38" s="85" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L38" s="136">
         <v>50000</v>
@@ -11825,11 +11822,11 @@
       <c r="F39" s="59"/>
       <c r="G39" s="67"/>
       <c r="H39" s="62"/>
-      <c r="I39" s="144">
+      <c r="I39" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J39" s="144"/>
+      <c r="J39" s="163"/>
       <c r="K39" s="85" t="s">
         <v>155</v>
       </c>
@@ -11852,13 +11849,13 @@
         <v>8494.5</v>
       </c>
       <c r="H40" s="52"/>
-      <c r="I40" s="145">
+      <c r="I40" s="170">
         <f>SUM(I33:I39)</f>
         <v>2530350</v>
       </c>
-      <c r="J40" s="145"/>
+      <c r="J40" s="170"/>
       <c r="K40" s="52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L40" s="137">
         <f>SUM(L33:L39)</f>
@@ -11868,7 +11865,7 @@
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D41" s="52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E41" s="109" t="str">
         <f>CONCATENATE(ROUND((E40/E31)*100,2),"%")</f>
@@ -11877,10 +11874,10 @@
       <c r="F41" s="15"/>
       <c r="G41" s="58"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
       <c r="K41" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L41" s="105">
         <f>I40-L40</f>
@@ -11894,10 +11891,10 @@
       <c r="L42" s="40"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="147" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" s="147"/>
+      <c r="A43" s="172" t="s">
+        <v>290</v>
+      </c>
+      <c r="B43" s="172"/>
       <c r="C43" s="59"/>
       <c r="D43" s="15"/>
       <c r="E43" s="131" t="e">
@@ -11917,10 +11914,10 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="147" t="s">
-        <v>298</v>
-      </c>
-      <c r="B44" s="147"/>
+      <c r="A44" s="172" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" s="172"/>
       <c r="C44" s="59"/>
       <c r="D44" s="15"/>
       <c r="E44" s="131" t="e">
@@ -11953,20 +11950,11 @@
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.3">
       <c r="I56" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I38:J38"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -11983,6 +11971,15 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:K1">
     <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
@@ -12014,9 +12011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6015E841-7702-478F-8CE2-6F66B0872426}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12038,34 +12035,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="161" t="s">
-        <v>349</v>
-      </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="163"/>
+      <c r="A1" s="146" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148"/>
       <c r="F1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="151">
+      <c r="G1" s="149">
         <v>46016</v>
       </c>
-      <c r="H1" s="152"/>
+      <c r="H1" s="150"/>
       <c r="I1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="164">
+      <c r="J1" s="151">
         <f>L2-D2</f>
         <v>-469722.5</v>
       </c>
-      <c r="K1" s="165"/>
+      <c r="K1" s="152"/>
       <c r="L1" s="18"/>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
@@ -12077,10 +12074,10 @@
       <c r="F2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="153" t="s">
-        <v>351</v>
-      </c>
-      <c r="H2" s="168"/>
+      <c r="G2" s="155" t="s">
+        <v>353</v>
+      </c>
+      <c r="H2" s="156"/>
       <c r="I2" s="38"/>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -12093,25 +12090,25 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="155" t="s">
+      <c r="B3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="169" t="s">
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="170"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="172"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="160"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
@@ -12168,7 +12165,7 @@
         <v>288000</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F5" s="45">
         <v>46049</v>
@@ -12187,13 +12184,13 @@
         <v>46046</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -12204,7 +12201,7 @@
         <v>46016</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D6" s="5">
         <v>13000</v>
@@ -12223,13 +12220,13 @@
         <v>46049</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="L6" s="5">
         <v>115277.5</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -12240,7 +12237,7 @@
         <v>46046</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D7" s="5">
         <v>250000</v>
@@ -12268,7 +12265,7 @@
         <v>46046</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D8" s="5">
         <v>34000</v>
@@ -12405,11 +12402,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
       <c r="E14" s="69"/>
-      <c r="F14" s="148" t="s">
+      <c r="F14" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="149"/>
-      <c r="H14" s="150"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="166"/>
       <c r="I14" s="21">
         <v>10</v>
       </c>
@@ -12429,10 +12426,10 @@
       <c r="F15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="151">
+      <c r="G15" s="149">
         <v>46016</v>
       </c>
-      <c r="H15" s="152"/>
+      <c r="H15" s="150"/>
       <c r="I15" s="21">
         <v>11</v>
       </c>
@@ -12452,10 +12449,10 @@
       <c r="F16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="153" t="s">
-        <v>347</v>
-      </c>
-      <c r="H16" s="154"/>
+      <c r="G16" s="155" t="s">
+        <v>354</v>
+      </c>
+      <c r="H16" s="167"/>
       <c r="I16" s="21">
         <v>12</v>
       </c>
@@ -12472,11 +12469,11 @@
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="155" t="s">
+      <c r="F17" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="156"/>
-      <c r="H17" s="157"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="168"/>
       <c r="I17" s="21">
         <v>13</v>
       </c>
@@ -12766,13 +12763,13 @@
         <v>990000</v>
       </c>
       <c r="F31" s="93" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G31" s="86">
         <v>830000</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I31" s="86">
         <v>160000</v>
@@ -12793,24 +12790,24 @@
         <v>88</v>
       </c>
       <c r="G32" s="93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="158" t="s">
+      <c r="I32" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="158"/>
-      <c r="K32" s="159" t="s">
-        <v>253</v>
-      </c>
-      <c r="L32" s="160"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" s="145"/>
       <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D33" s="15" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="E33" s="59">
         <f>G33*F33</f>
@@ -12825,11 +12822,11 @@
       <c r="H33" s="62">
         <v>65</v>
       </c>
-      <c r="I33" s="144">
+      <c r="I33" s="163">
         <f>G33*H33</f>
         <v>115277.5</v>
       </c>
-      <c r="J33" s="144"/>
+      <c r="J33" s="163"/>
       <c r="K33" s="85" t="s">
         <v>143</v>
       </c>
@@ -12847,11 +12844,11 @@
       <c r="F34" s="59"/>
       <c r="G34" s="67"/>
       <c r="H34" s="62"/>
-      <c r="I34" s="144">
+      <c r="I34" s="163">
         <f t="shared" ref="I34:I39" si="3">G34*H34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="144"/>
+      <c r="J34" s="163"/>
       <c r="K34" s="85"/>
       <c r="L34" s="136"/>
       <c r="M34" s="15"/>
@@ -12866,15 +12863,15 @@
       <c r="F35" s="59"/>
       <c r="G35" s="67"/>
       <c r="H35" s="62"/>
-      <c r="I35" s="144">
+      <c r="I35" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35" s="144"/>
+      <c r="J35" s="163"/>
       <c r="K35" s="85"/>
       <c r="L35" s="136"/>
       <c r="M35" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -12886,11 +12883,11 @@
       <c r="F36" s="59"/>
       <c r="G36" s="67"/>
       <c r="H36" s="62"/>
-      <c r="I36" s="144">
+      <c r="I36" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J36" s="144"/>
+      <c r="J36" s="163"/>
       <c r="K36" s="2"/>
       <c r="L36" s="136"/>
       <c r="M36" s="15"/>
@@ -12904,11 +12901,11 @@
       <c r="F37" s="59"/>
       <c r="G37" s="67"/>
       <c r="H37" s="62"/>
-      <c r="I37" s="144">
+      <c r="I37" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J37" s="144"/>
+      <c r="J37" s="163"/>
       <c r="K37" s="85"/>
       <c r="L37" s="136"/>
       <c r="M37" s="15"/>
@@ -12922,11 +12919,11 @@
       <c r="F38" s="59"/>
       <c r="G38" s="67"/>
       <c r="H38" s="62"/>
-      <c r="I38" s="144">
+      <c r="I38" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J38" s="144"/>
+      <c r="J38" s="163"/>
       <c r="K38" s="85"/>
       <c r="L38" s="136"/>
       <c r="M38" s="15"/>
@@ -12940,11 +12937,11 @@
       <c r="F39" s="59"/>
       <c r="G39" s="67"/>
       <c r="H39" s="62"/>
-      <c r="I39" s="144">
+      <c r="I39" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J39" s="144"/>
+      <c r="J39" s="163"/>
       <c r="K39" s="85"/>
       <c r="L39" s="136"/>
       <c r="M39" s="15"/>
@@ -12963,13 +12960,13 @@
         <v>1773.5</v>
       </c>
       <c r="H40" s="52"/>
-      <c r="I40" s="145">
+      <c r="I40" s="170">
         <f>SUM(I33:I39)</f>
         <v>115277.5</v>
       </c>
-      <c r="J40" s="145"/>
+      <c r="J40" s="170"/>
       <c r="K40" s="52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L40" s="137">
         <f>SUM(L33:L39)</f>
@@ -12979,7 +12976,7 @@
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D41" s="52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E41" s="109" t="str">
         <f>CONCATENATE(ROUND((E40/E31)*100,2),"%")</f>
@@ -12988,10 +12985,10 @@
       <c r="F41" s="15"/>
       <c r="G41" s="58"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
       <c r="K41" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L41" s="105">
         <f>I40-L40</f>
@@ -13005,10 +13002,10 @@
       <c r="L42" s="40"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="147" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" s="147"/>
+      <c r="A43" s="172" t="s">
+        <v>290</v>
+      </c>
+      <c r="B43" s="172"/>
       <c r="C43" s="59"/>
       <c r="D43" s="15"/>
       <c r="E43" s="131" t="e">
@@ -13028,10 +13025,10 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="147" t="s">
-        <v>298</v>
-      </c>
-      <c r="B44" s="147"/>
+      <c r="A44" s="172" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" s="172"/>
       <c r="C44" s="59"/>
       <c r="D44" s="15"/>
       <c r="E44" s="131" t="e">
@@ -13064,20 +13061,16 @@
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.3">
       <c r="I56" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="G15:H15"/>
@@ -13089,11 +13082,15 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:K1">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
@@ -13127,7 +13124,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13149,34 +13146,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="161" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="163"/>
+      <c r="A1" s="146" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148"/>
       <c r="F1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="151">
+      <c r="G1" s="149">
         <v>46068</v>
       </c>
-      <c r="H1" s="152"/>
+      <c r="H1" s="150"/>
       <c r="I1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="164">
+      <c r="J1" s="151">
         <f>L2-D2</f>
         <v>-289000</v>
       </c>
-      <c r="K1" s="165"/>
+      <c r="K1" s="152"/>
       <c r="L1" s="18"/>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
@@ -13188,11 +13185,11 @@
       <c r="F2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="153" t="str">
-        <f ca="1">IF(ISBLANK(G1),"",CONCATENATE(_xlfn.DAYS(TODAY(), G1-1)," Days"))</f>
-        <v>2 Days</v>
-      </c>
-      <c r="H2" s="168"/>
+      <c r="G2" s="155" t="str">
+        <f ca="1">IF(ISBLANK(G1),"",CONCATENATE(_xlfn.DAYS(TODAY(), G1-1)," days"))</f>
+        <v>7 days</v>
+      </c>
+      <c r="H2" s="156"/>
       <c r="I2" s="38"/>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -13205,25 +13202,25 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="155" t="s">
+      <c r="B3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="169" t="s">
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="170"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="172"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="160"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
@@ -13302,7 +13299,7 @@
         <v>45703</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D6" s="5">
         <v>33000</v>
@@ -13483,11 +13480,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
       <c r="E14" s="69"/>
-      <c r="F14" s="148" t="s">
+      <c r="F14" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="149"/>
-      <c r="H14" s="150"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="166"/>
       <c r="I14" s="21">
         <v>10</v>
       </c>
@@ -13507,10 +13504,10 @@
       <c r="F15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="151">
+      <c r="G15" s="149">
         <v>46068</v>
       </c>
-      <c r="H15" s="152"/>
+      <c r="H15" s="150"/>
       <c r="I15" s="21">
         <v>11</v>
       </c>
@@ -13530,11 +13527,11 @@
       <c r="F16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="153" t="str">
-        <f ca="1">IF(ISBLANK(G15),"",CONCATENATE(_xlfn.DAYS(TODAY(), G1-1)," Days"))</f>
-        <v>2 Days</v>
-      </c>
-      <c r="H16" s="154"/>
+      <c r="G16" s="155" t="str">
+        <f ca="1">IF(ISBLANK(G15),"",CONCATENATE(_xlfn.DAYS(TODAY(), G1-1)," days"))</f>
+        <v>7 days</v>
+      </c>
+      <c r="H16" s="167"/>
       <c r="I16" s="21">
         <v>12</v>
       </c>
@@ -13551,11 +13548,11 @@
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="155" t="s">
+      <c r="F17" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="156"/>
-      <c r="H17" s="157"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="168"/>
       <c r="I17" s="21">
         <v>13</v>
       </c>
@@ -13846,13 +13843,13 @@
         <v>800000</v>
       </c>
       <c r="F31" s="93" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G31" s="86">
         <v>700000</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I31" s="86">
         <v>100000</v>
@@ -13873,19 +13870,19 @@
         <v>88</v>
       </c>
       <c r="G32" s="93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="158" t="s">
+      <c r="I32" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="158"/>
-      <c r="K32" s="159" t="s">
-        <v>253</v>
-      </c>
-      <c r="L32" s="160"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" s="145"/>
       <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -13897,11 +13894,11 @@
       <c r="F33" s="59"/>
       <c r="G33" s="67"/>
       <c r="H33" s="62"/>
-      <c r="I33" s="144">
+      <c r="I33" s="163">
         <f>G33*H33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="144"/>
+      <c r="J33" s="163"/>
       <c r="K33" s="85"/>
       <c r="L33" s="136"/>
       <c r="M33" s="15"/>
@@ -13915,11 +13912,11 @@
       <c r="F34" s="59"/>
       <c r="G34" s="67"/>
       <c r="H34" s="62"/>
-      <c r="I34" s="144">
+      <c r="I34" s="163">
         <f t="shared" ref="I34:I39" si="3">G34*H34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="144"/>
+      <c r="J34" s="163"/>
       <c r="K34" s="85"/>
       <c r="L34" s="136"/>
       <c r="M34" s="15"/>
@@ -13934,15 +13931,15 @@
       <c r="F35" s="59"/>
       <c r="G35" s="67"/>
       <c r="H35" s="62"/>
-      <c r="I35" s="144">
+      <c r="I35" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35" s="144"/>
+      <c r="J35" s="163"/>
       <c r="K35" s="85"/>
       <c r="L35" s="136"/>
       <c r="M35" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -13954,11 +13951,11 @@
       <c r="F36" s="59"/>
       <c r="G36" s="67"/>
       <c r="H36" s="62"/>
-      <c r="I36" s="144">
+      <c r="I36" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J36" s="144"/>
+      <c r="J36" s="163"/>
       <c r="K36" s="2"/>
       <c r="L36" s="136"/>
       <c r="M36" s="15"/>
@@ -13972,11 +13969,11 @@
       <c r="F37" s="59"/>
       <c r="G37" s="67"/>
       <c r="H37" s="62"/>
-      <c r="I37" s="144">
+      <c r="I37" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J37" s="144"/>
+      <c r="J37" s="163"/>
       <c r="K37" s="85"/>
       <c r="L37" s="136"/>
       <c r="M37" s="15"/>
@@ -13990,11 +13987,11 @@
       <c r="F38" s="59"/>
       <c r="G38" s="67"/>
       <c r="H38" s="62"/>
-      <c r="I38" s="144">
+      <c r="I38" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J38" s="144"/>
+      <c r="J38" s="163"/>
       <c r="K38" s="85"/>
       <c r="L38" s="136"/>
       <c r="M38" s="15"/>
@@ -14008,11 +14005,11 @@
       <c r="F39" s="59"/>
       <c r="G39" s="67"/>
       <c r="H39" s="62"/>
-      <c r="I39" s="144">
+      <c r="I39" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J39" s="144"/>
+      <c r="J39" s="163"/>
       <c r="K39" s="85"/>
       <c r="L39" s="136"/>
       <c r="M39" s="15"/>
@@ -14031,13 +14028,13 @@
         <v>0</v>
       </c>
       <c r="H40" s="52"/>
-      <c r="I40" s="145">
+      <c r="I40" s="170">
         <f>SUM(I33:I39)</f>
         <v>0</v>
       </c>
-      <c r="J40" s="145"/>
+      <c r="J40" s="170"/>
       <c r="K40" s="52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L40" s="137">
         <f>SUM(L33:L39)</f>
@@ -14047,7 +14044,7 @@
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D41" s="52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E41" s="109" t="str">
         <f>CONCATENATE(ROUND((E40/E31)*100,2),"%")</f>
@@ -14056,10 +14053,10 @@
       <c r="F41" s="15"/>
       <c r="G41" s="58"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
       <c r="K41" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L41" s="105">
         <f>I40-L40</f>
@@ -14073,10 +14070,10 @@
       <c r="L42" s="40"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="147" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" s="147"/>
+      <c r="A43" s="172" t="s">
+        <v>290</v>
+      </c>
+      <c r="B43" s="172"/>
       <c r="C43" s="59"/>
       <c r="D43" s="15"/>
       <c r="E43" s="131" t="e">
@@ -14096,10 +14093,10 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="147" t="s">
-        <v>298</v>
-      </c>
-      <c r="B44" s="147"/>
+      <c r="A44" s="172" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" s="172"/>
       <c r="C44" s="59"/>
       <c r="D44" s="15"/>
       <c r="E44" s="131" t="e">
@@ -14129,20 +14126,16 @@
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.3">
       <c r="I56" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="G15:H15"/>
@@ -14154,11 +14147,15 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:K1">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
@@ -14192,7 +14189,7 @@
   <sheetViews>
     <sheetView zoomScale="104" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14218,10 +14215,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D1" s="95" t="s">
         <v>36</v>
@@ -14239,7 +14236,7 @@
         <v>100</v>
       </c>
       <c r="I1" s="185" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J1" s="185"/>
       <c r="K1" s="185"/>
@@ -14247,14 +14244,14 @@
       <c r="M1" s="186"/>
       <c r="N1" s="182" t="str">
         <f ca="1">DATEDIF(T1,TODAY(),"y")&amp;" year, "&amp;DATEDIF(T1,TODAY(),"ym")&amp;" months, "&amp;TODAY()-DATE(YEAR(TODAY()),MONTH(TODAY()),1)&amp;" days"</f>
-        <v>2 year, 10 months, 15 days</v>
+        <v>2 year, 10 months, 20 days</v>
       </c>
       <c r="O1" s="183"/>
       <c r="P1" s="183"/>
       <c r="Q1" s="183"/>
       <c r="R1" s="184"/>
       <c r="S1" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="T1" s="104">
         <v>45023</v>
@@ -14271,7 +14268,7 @@
         <v>May2023 - Sept2023</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D2" s="96">
         <f>IF(F2="","",E2-F2)</f>
@@ -14306,7 +14303,7 @@
         <v>Sept2023 - Nov2023</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D3" s="96">
         <f t="shared" ref="D3:D7" si="0">IF(F3="","",E3-F3)</f>
@@ -14341,7 +14338,7 @@
         <v>Nov2023 - Jan2024</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D4" s="96">
         <f t="shared" si="0"/>
@@ -14376,7 +14373,7 @@
         <v>Feb2024 - May2024</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D5" s="96">
         <f t="shared" si="0"/>
@@ -14396,7 +14393,7 @@
       </c>
       <c r="H5" s="141" t="str" cm="1">
         <f t="array" ref="H5:I5">'Term-4'!H2:I2</f>
-        <v>72 Days</v>
+        <v>72 days</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -14411,7 +14408,7 @@
         <v>July 2024 - Sept2024</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D6" s="96">
         <f t="shared" si="0"/>
@@ -14431,7 +14428,7 @@
       </c>
       <c r="H6" s="141" t="str" cm="1">
         <f t="array" ref="H6:I6">'Term-5'!H2:I2</f>
-        <v>58 Days</v>
+        <v>58 days</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -14446,7 +14443,7 @@
         <v>Sep2024 - Nov2024</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D7" s="96">
         <f t="shared" si="0"/>
@@ -14466,7 +14463,7 @@
       </c>
       <c r="H7" s="141" t="str" cm="1">
         <f t="array" ref="H7:I7">'Term-6'!H2:I2</f>
-        <v>73 Days</v>
+        <v>73 days</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -14481,7 +14478,7 @@
         <v>Dec2024 - Feb2025</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D8" s="96">
         <f t="shared" ref="D8:D10" si="1">IF(F8="","",E8-F8)</f>
@@ -14501,7 +14498,7 @@
       </c>
       <c r="H8" s="141" t="str" cm="1">
         <f t="array" ref="H8:I8">'Term-7'!H2:I2</f>
-        <v>79 Days</v>
+        <v>79 days</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -14516,7 +14513,7 @@
         <v>Feb2025 - May2025</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D9" s="96">
         <f t="shared" si="1"/>
@@ -14536,7 +14533,7 @@
       </c>
       <c r="H9" s="141" t="str" cm="1">
         <f t="array" ref="H9:I9">'Term-8'!H2:I2</f>
-        <v>78 Days</v>
+        <v>78 days</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -14551,7 +14548,7 @@
         <v>July2025 - Sept2025</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D10" s="96">
         <f t="shared" si="1"/>
@@ -14571,7 +14568,7 @@
       </c>
       <c r="H10" s="141" t="str" cm="1">
         <f t="array" ref="H10:I10">'Term-9'!G2:H2</f>
-        <v>62 Days</v>
+        <v>62 days</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -14586,7 +14583,7 @@
         <v>Sept2025 - Dec2025</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D11" s="96">
         <f t="shared" ref="D11" si="2">IF(F11="","",E11-F11)</f>
@@ -14606,7 +14603,7 @@
       </c>
       <c r="H11" s="141" t="str" cm="1">
         <f t="array" ref="H11:I11">'Term-10'!G2:H2</f>
-        <v>78 Days</v>
+        <v>78 days</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -14621,7 +14618,7 @@
         <v>Dec2025 - Jan2026</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D12" s="96">
         <f t="shared" ref="D12" si="3">IF(F12="","",E12-F12)</f>
@@ -14641,7 +14638,7 @@
       </c>
       <c r="H12" s="141" t="str" cm="1">
         <f t="array" ref="H12:I12">'Term-11'!G2:H2</f>
-        <v>34 Days</v>
+        <v>34 days</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -14656,7 +14653,7 @@
         <v>Dec2025 - Jan2026</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D13" s="96">
         <f t="shared" ref="D13" si="4">IF(F13="","",E13-F13)</f>
@@ -14816,7 +14813,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="179" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B25" s="180"/>
       <c r="C25" s="181"/>
@@ -14837,7 +14834,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="138" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -14845,10 +14842,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C28" s="95" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D28" s="94" t="s">
         <v>36</v>
@@ -14983,13 +14980,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="107" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C1" s="107" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D1" s="107" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -14997,28 +14994,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C2" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D2" s="108" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="88"/>
       <c r="B3" s="108" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C3" s="108" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D3" s="108" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E3" s="134" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G3" s="117"/>
       <c r="H3" s="117"/>
@@ -15028,11 +15025,11 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="88"/>
       <c r="B4" s="108" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C4" s="108"/>
       <c r="D4" s="108" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G4" s="117"/>
       <c r="H4" s="117"/>
@@ -15042,11 +15039,11 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="88"/>
       <c r="B5" s="108" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C5" s="108"/>
       <c r="D5" s="108" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G5" s="117"/>
       <c r="H5" s="117"/>
@@ -15184,7 +15181,7 @@
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15208,28 +15205,28 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="161" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
+      <c r="B1" s="146" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="151">
+      <c r="H1" s="149">
         <v>45163</v>
       </c>
-      <c r="I1" s="152"/>
+      <c r="I1" s="150"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="164">
+      <c r="K1" s="151">
         <f>M2-E2</f>
         <v>-218110</v>
       </c>
-      <c r="L1" s="165"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
@@ -15238,8 +15235,8 @@
         <f>SUM(A5:A104)</f>
         <v>430300</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -15251,10 +15248,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" s="168"/>
+      <c r="H2" s="155" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="156"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -15267,25 +15264,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="155" t="s">
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="169" t="s">
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="172"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -15351,8 +15348,8 @@
         <v>325</v>
       </c>
       <c r="I5" s="49" t="str">
-        <f>IF(ISBLANK(G5),"",CONCATENATE("(",G5-$H$1+1," days)"))</f>
-        <v>(27 days)</v>
+        <f>IF(ISBLANK(G5),"",CONCATENATE(G5-$H$1+1," days"))</f>
+        <v>27 days</v>
       </c>
       <c r="J5" s="21">
         <v>1</v>
@@ -15532,11 +15529,11 @@
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="149"/>
-      <c r="I12" s="150"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="166"/>
       <c r="J12" s="21">
         <v>8</v>
       </c>
@@ -15557,10 +15554,10 @@
       <c r="G13" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="151">
+      <c r="H13" s="149">
         <v>45163</v>
       </c>
-      <c r="I13" s="152"/>
+      <c r="I13" s="150"/>
       <c r="J13" s="21">
         <v>9</v>
       </c>
@@ -15581,10 +15578,10 @@
       <c r="G14" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="I14" s="168"/>
+      <c r="H14" s="155" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" s="156"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -15602,11 +15599,11 @@
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="155" t="s">
+      <c r="G15" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -15655,8 +15652,8 @@
         <v>325</v>
       </c>
       <c r="I17" s="49" t="str">
-        <f>IF(ISBLANK(G17),"",CONCATENATE("(",G17-$H$13+1," days)"))</f>
-        <v>(27 days)</v>
+        <f>IF(ISBLANK(G17),"",CONCATENATE(G17-$H$13+1," days"))</f>
+        <v>27 days</v>
       </c>
       <c r="J17" s="21">
         <v>13</v>
@@ -17370,12 +17367,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H13:I13"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:N3"/>
@@ -17384,6 +17375,12 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D106">
     <cfRule type="duplicateValues" dxfId="55" priority="6"/>
@@ -17424,7 +17421,7 @@
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17448,28 +17445,28 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="161" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
+      <c r="B1" s="146" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="151">
+      <c r="H1" s="149">
         <v>45163</v>
       </c>
-      <c r="I1" s="152"/>
+      <c r="I1" s="150"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="164">
+      <c r="K1" s="151">
         <f>M2-E2</f>
         <v>-470000</v>
       </c>
-      <c r="L1" s="165"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
@@ -17478,8 +17475,8 @@
         <f>SUM(A5:A104)</f>
         <v>430300</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -17491,10 +17488,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="153" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" s="168"/>
+      <c r="H2" s="155" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="156"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -17507,25 +17504,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="155" t="s">
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="169" t="s">
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="172"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -17591,8 +17588,8 @@
         <v>325</v>
       </c>
       <c r="I5" s="49" t="str">
-        <f>IF(ISBLANK(G5),"",CONCATENATE("(",G5-$H$1+1," days)"))</f>
-        <v>(27 days)</v>
+        <f>IF(ISBLANK(G5),"",CONCATENATE(G5-$H$1+1," days"))</f>
+        <v>27 days</v>
       </c>
       <c r="J5" s="21">
         <v>1</v>
@@ -17601,7 +17598,7 @@
         <v>45189</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M5" s="5">
         <v>120000</v>
@@ -17673,7 +17670,7 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" s="5">
         <v>100000</v>
@@ -17768,11 +17765,11 @@
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="149"/>
-      <c r="I12" s="150"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="166"/>
       <c r="J12" s="21">
         <v>8</v>
       </c>
@@ -17793,10 +17790,10 @@
       <c r="G13" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="151">
+      <c r="H13" s="149">
         <v>45163</v>
       </c>
-      <c r="I13" s="152"/>
+      <c r="I13" s="150"/>
       <c r="J13" s="21">
         <v>9</v>
       </c>
@@ -17817,10 +17814,10 @@
       <c r="G14" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="153" t="s">
-        <v>172</v>
-      </c>
-      <c r="I14" s="168"/>
+      <c r="H14" s="155" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" s="156"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -17838,11 +17835,11 @@
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="155" t="s">
+      <c r="G15" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -17891,8 +17888,8 @@
         <v>325</v>
       </c>
       <c r="I17" s="49" t="str">
-        <f>IF(ISBLANK(G17),"",CONCATENATE("(",G17-$H$13+1," days)"))</f>
-        <v>(27 days)</v>
+        <f>IF(ISBLANK(G17),"",CONCATENATE(G17-$H$13+1," days"))</f>
+        <v>27 days</v>
       </c>
       <c r="J17" s="21">
         <v>13</v>
@@ -19660,7 +19657,7 @@
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19684,28 +19681,28 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="161" t="s">
-        <v>278</v>
-      </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
+      <c r="B1" s="146" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="151">
+      <c r="H1" s="149">
         <v>45345</v>
       </c>
-      <c r="I1" s="152"/>
+      <c r="I1" s="150"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="164">
+      <c r="K1" s="151">
         <f>M2-E2</f>
         <v>1098545</v>
       </c>
-      <c r="L1" s="165"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
@@ -19714,8 +19711,8 @@
         <f>SUM(A5:A26)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -19727,10 +19724,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="153" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="168"/>
+      <c r="H2" s="155" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2" s="156"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -19743,25 +19740,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="155" t="s">
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="169" t="s">
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="172"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -19821,8 +19818,8 @@
         <v>124</v>
       </c>
       <c r="I5" s="49" t="str">
-        <f>IF(ISBLANK(G5),"",CONCATENATE("(",G5-$H$1+1," days)"))</f>
-        <v>(52 days)</v>
+        <f>IF(ISBLANK(G5),"",CONCATENATE(G5-$H$1+1," days"))</f>
+        <v>52 days</v>
       </c>
       <c r="J5" s="21">
         <v>1</v>
@@ -19831,7 +19828,7 @@
         <v>45399</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M5" s="5">
         <v>432360</v>
@@ -19857,8 +19854,8 @@
         <v>107</v>
       </c>
       <c r="I6" s="49" t="str">
-        <f>IF(ISBLANK(G6),"",CONCATENATE("(",G6-$H$1+1," days)"))</f>
-        <v>(55 days)</v>
+        <f t="shared" ref="I6:I13" si="0">IF(ISBLANK(G6),"",CONCATENATE(G6-$H$1+1," days"))</f>
+        <v>55 days</v>
       </c>
       <c r="J6" s="21">
         <v>2</v>
@@ -19867,7 +19864,7 @@
         <v>45408</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M6" s="5">
         <v>454020</v>
@@ -19886,7 +19883,7 @@
         <v>436381</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G7" s="45">
         <v>45404</v>
@@ -19895,8 +19892,8 @@
         <v>88</v>
       </c>
       <c r="I7" s="49" t="str">
-        <f>IF(ISBLANK(G7),"",CONCATENATE("(",G7-$H$1+1," days)"))</f>
-        <v>(60 days)</v>
+        <f t="shared" si="0"/>
+        <v>60 days</v>
       </c>
       <c r="J7" s="21">
         <v>3</v>
@@ -19932,8 +19929,8 @@
         <v>80</v>
       </c>
       <c r="I8" s="49" t="str">
-        <f>IF(ISBLANK(G8),"",CONCATENATE("(",G8-$H$1+1," days)"))</f>
-        <v>(63 days)</v>
+        <f t="shared" si="0"/>
+        <v>63 days</v>
       </c>
       <c r="J8" s="21">
         <v>4</v>
@@ -19942,7 +19939,7 @@
         <v>45416</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M8" s="5">
         <v>535000</v>
@@ -19969,8 +19966,8 @@
         <v>78</v>
       </c>
       <c r="I9" s="49" t="str">
-        <f>IF(ISBLANK(G9),"",CONCATENATE("(",G9-$H$1+1," days)"))</f>
-        <v>(64 days)</v>
+        <f t="shared" si="0"/>
+        <v>64 days</v>
       </c>
       <c r="J9" s="21">
         <v>5</v>
@@ -20002,8 +19999,8 @@
         <v>62</v>
       </c>
       <c r="I10" s="49" t="str">
-        <f t="shared" ref="I10" si="0">IF(ISBLANK(G10),"",CONCATENATE("(",G10-$H$1+1," days)"))</f>
-        <v>(71 days)</v>
+        <f t="shared" si="0"/>
+        <v>71 days</v>
       </c>
       <c r="J10" s="21">
         <v>6</v>
@@ -20029,8 +20026,8 @@
         <v>65</v>
       </c>
       <c r="I11" s="49" t="str">
-        <f>IF(ISBLANK(G11),"",CONCATENATE("(",G11-$H$1+1," days)"))</f>
-        <v>(72 days)</v>
+        <f t="shared" si="0"/>
+        <v>72 days</v>
       </c>
       <c r="J11" s="21">
         <v>7</v>
@@ -20056,8 +20053,8 @@
         <v>58</v>
       </c>
       <c r="I12" s="49" t="str">
-        <f>IF(ISBLANK(G12),"",CONCATENATE("(",G12-$H$1+1," days)"))</f>
-        <v>(75 days)</v>
+        <f t="shared" si="0"/>
+        <v>75 days</v>
       </c>
       <c r="J12" s="41">
         <v>8</v>
@@ -20083,8 +20080,8 @@
         <v>58</v>
       </c>
       <c r="I13" s="49" t="str">
-        <f>IF(ISBLANK(G13),"",CONCATENATE("(",G13-$H$1+1," days)"))</f>
-        <v>(77 days)</v>
+        <f t="shared" si="0"/>
+        <v>77 days</v>
       </c>
       <c r="J13" s="41">
         <v>9</v>
@@ -20103,11 +20100,11 @@
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
       <c r="F14" s="69"/>
-      <c r="G14" s="148" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
+      <c r="G14" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="165"/>
+      <c r="I14" s="166"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -20128,10 +20125,10 @@
       <c r="G15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="151">
+      <c r="H15" s="149">
         <v>45345</v>
       </c>
-      <c r="I15" s="152"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -20153,7 +20150,7 @@
         <v>100</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>158</v>
+        <v>345</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="21">
@@ -20173,11 +20170,11 @@
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="155" t="s">
+      <c r="G17" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="156"/>
-      <c r="I17" s="157"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="168"/>
       <c r="J17" s="21">
         <v>13</v>
       </c>
@@ -20226,8 +20223,8 @@
         <v>60</v>
       </c>
       <c r="I19" s="49" t="str">
-        <f>IF(ISBLANK(G19),"",CONCATENATE("(",G19-$H$15+1," days)"))</f>
-        <v>(60 days)</v>
+        <f>IF(ISBLANK(G19),"",CONCATENATE(G19-$H$15+1," days"))</f>
+        <v>60 days</v>
       </c>
       <c r="J19" s="21">
         <v>15</v>
@@ -20253,8 +20250,8 @@
         <v>57</v>
       </c>
       <c r="I20" s="49" t="str">
-        <f>IF(ISBLANK(G20),"",CONCATENATE("(",G20-$H$15+1," days)"))</f>
-        <v>(64 days)</v>
+        <f>IF(ISBLANK(G20),"",CONCATENATE(G20-$H$15+1," days"))</f>
+        <v>64 days</v>
       </c>
       <c r="J20" s="21">
         <v>16</v>
@@ -20409,15 +20406,15 @@
         <v>88</v>
       </c>
       <c r="H28" s="93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I28" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="J28" s="158" t="s">
+      <c r="J28" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="K28" s="158"/>
+      <c r="K28" s="169"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E29" s="15" t="s">
@@ -20436,11 +20433,11 @@
       <c r="I29" s="62">
         <v>0</v>
       </c>
-      <c r="J29" s="144">
+      <c r="J29" s="163">
         <f>H29*I29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="144"/>
+      <c r="K29" s="163"/>
       <c r="L29" s="6" t="s">
         <v>138</v>
       </c>
@@ -20465,11 +20462,11 @@
       <c r="I30" s="62">
         <v>200</v>
       </c>
-      <c r="J30" s="144">
+      <c r="J30" s="163">
         <f t="shared" ref="J30:J33" si="1">H30*I30</f>
         <v>432360.00000000006</v>
       </c>
-      <c r="K30" s="144"/>
+      <c r="K30" s="163"/>
       <c r="L30" s="6" t="s">
         <v>143</v>
       </c>
@@ -20494,11 +20491,11 @@
       <c r="I31" s="62">
         <v>230</v>
       </c>
-      <c r="J31" s="144">
+      <c r="J31" s="163">
         <f t="shared" si="1"/>
         <v>454020</v>
       </c>
-      <c r="K31" s="144"/>
+      <c r="K31" s="163"/>
       <c r="L31" s="6" t="s">
         <v>153</v>
       </c>
@@ -20523,11 +20520,11 @@
       <c r="I32" s="62">
         <v>250</v>
       </c>
-      <c r="J32" s="144">
+      <c r="J32" s="163">
         <f t="shared" si="1"/>
         <v>541000</v>
       </c>
-      <c r="K32" s="144"/>
+      <c r="K32" s="163"/>
       <c r="L32" s="6" t="s">
         <v>154</v>
       </c>
@@ -20552,11 +20549,11 @@
       <c r="I33" s="62">
         <v>270</v>
       </c>
-      <c r="J33" s="144">
+      <c r="J33" s="163">
         <f t="shared" si="1"/>
         <v>253179</v>
       </c>
-      <c r="K33" s="144"/>
+      <c r="K33" s="163"/>
       <c r="L33" s="6" t="s">
         <v>143</v>
       </c>
@@ -20580,11 +20577,11 @@
       <c r="I34" s="62">
         <v>275</v>
       </c>
-      <c r="J34" s="144">
+      <c r="J34" s="163">
         <f t="shared" ref="J34:J35" si="2">H34*I34</f>
         <v>1014090</v>
       </c>
-      <c r="K34" s="144"/>
+      <c r="K34" s="163"/>
       <c r="L34" s="6" t="s">
         <v>155</v>
       </c>
@@ -20608,11 +20605,11 @@
       <c r="I35" s="62">
         <v>215</v>
       </c>
-      <c r="J35" s="144">
+      <c r="J35" s="163">
         <f t="shared" si="2"/>
         <v>11395</v>
       </c>
-      <c r="K35" s="144"/>
+      <c r="K35" s="163"/>
       <c r="L35" s="6" t="s">
         <v>155</v>
       </c>
@@ -20634,11 +20631,11 @@
         <v>11018.1</v>
       </c>
       <c r="I36" s="52"/>
-      <c r="J36" s="145">
+      <c r="J36" s="170">
         <f>SUM(J29:J35)</f>
         <v>2706044</v>
       </c>
-      <c r="K36" s="145"/>
+      <c r="K36" s="170"/>
       <c r="L36" s="6" t="s">
         <v>154</v>
       </c>
@@ -20648,7 +20645,7 @@
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E37" s="52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F37" s="109" t="str">
         <f>CONCATENATE(ROUND((F36/F27)*100,2),"%")</f>
@@ -20657,8 +20654,8 @@
       <c r="G37" s="15"/>
       <c r="H37" s="58"/>
       <c r="I37" s="15"/>
-      <c r="J37" s="146"/>
-      <c r="K37" s="146"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="171"/>
       <c r="L37" s="6"/>
       <c r="M37" s="26">
         <f>SUM(M29:M36)</f>
@@ -20707,6 +20704,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J27:K27"/>
@@ -20716,20 +20727,6 @@
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G17:I17"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L1">
     <cfRule type="cellIs" dxfId="41" priority="4" operator="greaterThan">
@@ -20761,7 +20758,7 @@
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20785,35 +20782,35 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="161" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
+      <c r="B1" s="146" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="151">
+      <c r="H1" s="149">
         <v>45477</v>
       </c>
-      <c r="I1" s="152"/>
+      <c r="I1" s="150"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="164">
+      <c r="K1" s="151">
         <f>M2-E2</f>
         <v>391120</v>
       </c>
-      <c r="L1" s="165"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -20825,10 +20822,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="153" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="168"/>
+      <c r="H2" s="155" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" s="156"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -20841,25 +20838,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="155" t="s">
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="169" t="s">
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="172"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -20910,7 +20907,7 @@
         <v>45446</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="9">
         <v>40000</v>
@@ -20923,8 +20920,8 @@
         <v>110</v>
       </c>
       <c r="I5" s="49" t="str">
-        <f>IF(ISBLANK(G5),"",CONCATENATE("(",G5-$H$1+1," days)"))</f>
-        <v>(51 days)</v>
+        <f>IF(ISBLANK(G5),"",CONCATENATE(G5-$H$1+1," days"))</f>
+        <v>51 days</v>
       </c>
       <c r="J5" s="21">
         <v>1</v>
@@ -20933,7 +20930,7 @@
         <v>45534</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M5" s="5">
         <v>1334590</v>
@@ -20955,7 +20952,7 @@
         <v>262500</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G6" s="45">
         <v>45534</v>
@@ -20964,8 +20961,8 @@
         <v>111</v>
       </c>
       <c r="I6" s="49" t="str">
-        <f>IF(ISBLANK(G6),"",CONCATENATE("(",G6-$H$1+1," days)"))</f>
-        <v>(58 days)</v>
+        <f>IF(ISBLANK(G6),"",CONCATENATE(G6-$H$1+1," days"))</f>
+        <v>58 days</v>
       </c>
       <c r="J6" s="21">
         <v>2</v>
@@ -20974,7 +20971,7 @@
         <v>45543</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M6" s="5">
         <v>277732</v>
@@ -20990,7 +20987,7 @@
         <v>45477</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="9">
         <v>12000</v>
@@ -21019,7 +21016,7 @@
         <v>45474</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" s="9">
         <v>30000</v>
@@ -21048,13 +21045,13 @@
         <v>45537</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E9" s="5">
         <v>623857</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="46"/>
@@ -21079,7 +21076,7 @@
         <v>45550</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E10" s="5">
         <v>133202</v>
@@ -21108,7 +21105,7 @@
         <v>45534</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E11" s="5">
         <v>100000</v>
@@ -21137,7 +21134,7 @@
         <v>45550</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E12" s="5">
         <v>19643</v>
@@ -21164,7 +21161,7 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="57"/>
@@ -21193,11 +21190,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="69"/>
-      <c r="G14" s="148" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
+      <c r="G14" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="165"/>
+      <c r="I14" s="166"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -21220,10 +21217,10 @@
       <c r="G15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="151">
+      <c r="H15" s="149">
         <v>45477</v>
       </c>
-      <c r="I15" s="152"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -21247,7 +21244,7 @@
         <v>100</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="21">
@@ -21269,11 +21266,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="155" t="s">
+      <c r="G17" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="156"/>
-      <c r="I17" s="157"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="168"/>
       <c r="J17" s="21">
         <v>13</v>
       </c>
@@ -21326,8 +21323,8 @@
         <v>106</v>
       </c>
       <c r="I19" s="49" t="str">
-        <f>IF(ISBLANK(G19),"",CONCATENATE("(",G19-$H$15+1," days)"))</f>
-        <v>(51 days)</v>
+        <f>IF(ISBLANK(G19),"",CONCATENATE(G19-$H$15+1," days"))</f>
+        <v>51 days</v>
       </c>
       <c r="J19" s="21">
         <v>15</v>
@@ -21355,8 +21352,8 @@
         <v>96</v>
       </c>
       <c r="I20" s="49" t="str">
-        <f>IF(ISBLANK(G20),"",CONCATENATE("(",G20-$H$15+1," days)"))</f>
-        <v>(58 days)</v>
+        <f t="shared" ref="I20:I22" si="1">IF(ISBLANK(G20),"",CONCATENATE(G20-$H$15+1," days"))</f>
+        <v>58 days</v>
       </c>
       <c r="J20" s="21">
         <v>16</v>
@@ -21384,8 +21381,8 @@
         <v>91</v>
       </c>
       <c r="I21" s="49" t="str">
-        <f>IF(ISBLANK(G21),"",CONCATENATE("(",G21-$H$15+1," days)"))</f>
-        <v>(65 days)</v>
+        <f t="shared" si="1"/>
+        <v>65 days</v>
       </c>
       <c r="J21" s="21">
         <v>17</v>
@@ -21413,8 +21410,8 @@
         <v>92</v>
       </c>
       <c r="I22" s="49" t="str">
-        <f>IF(ISBLANK(G22),"",CONCATENATE("(",G22-$H$15+1," days)"))</f>
-        <v>(67 days)</v>
+        <f t="shared" si="1"/>
+        <v>67 days</v>
       </c>
       <c r="J22" s="21">
         <v>18</v>
@@ -21619,7 +21616,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C32" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D32" s="6">
         <v>133202</v>
@@ -21634,29 +21631,29 @@
         <v>88</v>
       </c>
       <c r="H32" s="93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="158" t="s">
+      <c r="J32" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="158"/>
-      <c r="L32" s="159" t="s">
-        <v>253</v>
-      </c>
-      <c r="M32" s="159"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" s="144"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C33" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D33" s="6">
         <v>30000</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F33" s="59">
         <f>H33*G33</f>
@@ -21671,13 +21668,13 @@
       <c r="I33" s="62">
         <v>249</v>
       </c>
-      <c r="J33" s="144">
+      <c r="J33" s="163">
         <f>H33*I33</f>
         <v>1327120.2</v>
       </c>
-      <c r="K33" s="144"/>
+      <c r="K33" s="163"/>
       <c r="L33" s="85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M33" s="62">
         <v>600000</v>
@@ -21688,10 +21685,10 @@
         <v>1209279</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F34" s="59">
-        <f t="shared" ref="F34:F39" si="1">H34*G34</f>
+        <f t="shared" ref="F34:F39" si="2">H34*G34</f>
         <v>6660</v>
       </c>
       <c r="G34" s="59">
@@ -21703,13 +21700,13 @@
       <c r="I34" s="62">
         <v>124.5</v>
       </c>
-      <c r="J34" s="144">
-        <f t="shared" ref="J34:J39" si="2">H34*I34</f>
+      <c r="J34" s="163">
+        <f t="shared" ref="J34:J39" si="3">H34*I34</f>
         <v>7470</v>
       </c>
-      <c r="K34" s="144"/>
+      <c r="K34" s="163"/>
       <c r="L34" s="85" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M34" s="62">
         <v>250000</v>
@@ -21724,10 +21721,10 @@
         <v>403043.19999999995</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F35" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98274.400000000009</v>
       </c>
       <c r="G35" s="59">
@@ -21739,13 +21736,13 @@
       <c r="I35" s="62">
         <v>250</v>
       </c>
-      <c r="J35" s="144">
-        <f t="shared" si="2"/>
+      <c r="J35" s="163">
+        <f t="shared" si="3"/>
         <v>267050</v>
       </c>
-      <c r="K35" s="144"/>
+      <c r="K35" s="163"/>
       <c r="L35" s="85" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M35" s="62">
         <v>50000</v>
@@ -21754,7 +21751,7 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E36" s="15"/>
       <c r="F36" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="59"/>
@@ -21764,11 +21761,11 @@
       <c r="I36" s="62">
         <v>10</v>
       </c>
-      <c r="J36" s="145">
-        <f t="shared" si="2"/>
+      <c r="J36" s="170">
+        <f t="shared" si="3"/>
         <v>10682</v>
       </c>
-      <c r="K36" s="145"/>
+      <c r="K36" s="170"/>
       <c r="L36" s="85" t="s">
         <v>155</v>
       </c>
@@ -21779,19 +21776,19 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E37" s="15"/>
       <c r="F37" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="59"/>
       <c r="H37" s="67"/>
       <c r="I37" s="62"/>
-      <c r="J37" s="144">
-        <f t="shared" si="2"/>
+      <c r="J37" s="163">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K37" s="144"/>
+      <c r="K37" s="163"/>
       <c r="L37" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M37" s="62">
         <v>133202</v>
@@ -21800,17 +21797,17 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E38" s="15"/>
       <c r="F38" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="59"/>
       <c r="H38" s="67"/>
       <c r="I38" s="62"/>
-      <c r="J38" s="144">
-        <f t="shared" si="2"/>
+      <c r="J38" s="163">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K38" s="144"/>
+      <c r="K38" s="163"/>
       <c r="L38" s="85" t="s">
         <v>155</v>
       </c>
@@ -21821,17 +21818,17 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E39" s="15"/>
       <c r="F39" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="59"/>
       <c r="H39" s="67"/>
       <c r="I39" s="62"/>
-      <c r="J39" s="144">
-        <f t="shared" si="2"/>
+      <c r="J39" s="163">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K39" s="144"/>
+      <c r="K39" s="163"/>
       <c r="L39" s="85"/>
       <c r="M39" s="62"/>
     </row>
@@ -21849,17 +21846,17 @@
         <v>7526.2</v>
       </c>
       <c r="I40" s="52"/>
-      <c r="J40" s="145">
+      <c r="J40" s="170">
         <f>SUM(J33:J39)</f>
         <v>1612322.2</v>
       </c>
-      <c r="K40" s="145"/>
+      <c r="K40" s="170"/>
       <c r="L40" s="85"/>
       <c r="M40" s="62"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E41" s="52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F41" s="109" t="str">
         <f>CONCATENATE(ROUND((F40/F31)*100,2),"%")</f>
@@ -21868,10 +21865,10 @@
       <c r="G41" s="15"/>
       <c r="H41" s="58"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="146"/>
+      <c r="J41" s="171"/>
+      <c r="K41" s="171"/>
       <c r="L41" s="52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M41" s="5">
         <f>SUM(M33:M40)</f>
@@ -21891,7 +21888,7 @@
       <c r="J42" s="80"/>
       <c r="K42" s="80"/>
       <c r="L42" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M42" s="82">
         <f>J40-M41</f>
@@ -21900,12 +21897,12 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="176" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="176"/>
       <c r="C43" s="176"/>
       <c r="F43" s="176" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G43" s="176"/>
       <c r="H43" s="176"/>
@@ -21940,16 +21937,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J38:K38"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="B1:F1"/>
@@ -21966,6 +21953,16 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L1">
     <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
@@ -21996,7 +21993,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22020,35 +22017,35 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="161" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
+      <c r="B1" s="146" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="151">
+      <c r="H1" s="149">
         <v>45548</v>
       </c>
-      <c r="I1" s="152"/>
+      <c r="I1" s="150"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="164">
+      <c r="K1" s="151">
         <f>M2-E2</f>
         <v>1002304</v>
       </c>
-      <c r="L1" s="165"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -22060,10 +22057,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="153" t="s">
-        <v>208</v>
-      </c>
-      <c r="I2" s="168"/>
+      <c r="H2" s="155" t="s">
+        <v>293</v>
+      </c>
+      <c r="I2" s="156"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -22076,25 +22073,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="155" t="s">
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="169" t="s">
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="172"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -22153,7 +22150,7 @@
         <v>210000</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G5" s="45">
         <v>45599</v>
@@ -22172,7 +22169,7 @@
         <v>45609</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M5" s="5">
         <v>558927</v>
@@ -22188,7 +22185,7 @@
         <v>45548</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="9">
         <v>30000</v>
@@ -22211,7 +22208,7 @@
         <v>45620</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M6" s="5">
         <v>1478368</v>
@@ -22227,13 +22224,13 @@
         <v>45561</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E7" s="9">
         <v>35000</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G7" s="102">
         <v>45606</v>
@@ -22252,7 +22249,7 @@
         <v>45633</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M7" s="5">
         <v>377808</v>
@@ -22268,7 +22265,7 @@
         <v>45561</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E8" s="9">
         <v>3500</v>
@@ -22367,7 +22364,7 @@
         <v>45599</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E11" s="5">
         <v>1200</v>
@@ -22400,7 +22397,7 @@
         <v>45609</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E12" s="5">
         <v>5600</v>
@@ -22433,7 +22430,7 @@
         <v>45620</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E13" s="5">
         <v>893146</v>
@@ -22462,17 +22459,17 @@
         <v>45620</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E14" s="5">
         <v>17400</v>
       </c>
       <c r="F14" s="69"/>
-      <c r="G14" s="148" t="s">
+      <c r="G14" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="166"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -22499,10 +22496,10 @@
       <c r="G15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="151">
+      <c r="H15" s="149">
         <v>45561</v>
       </c>
-      <c r="I15" s="152"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -22520,7 +22517,7 @@
         <v>45634</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E16" s="5">
         <v>27000</v>
@@ -22529,10 +22526,10 @@
       <c r="G16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="153" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16" s="154"/>
+      <c r="H16" s="155" t="s">
+        <v>293</v>
+      </c>
+      <c r="I16" s="167"/>
       <c r="J16" s="21">
         <v>12</v>
       </c>
@@ -22550,17 +22547,17 @@
         <v>45634</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E17" s="5">
         <v>45000</v>
       </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="155" t="s">
+      <c r="G17" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="156"/>
-      <c r="I17" s="157"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="168"/>
       <c r="J17" s="21">
         <v>13</v>
       </c>
@@ -22610,7 +22607,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
       <c r="F19" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G19" s="45">
         <v>45602</v>
@@ -22920,19 +22917,19 @@
         <v>88</v>
       </c>
       <c r="H32" s="93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="158" t="s">
+      <c r="J32" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="158"/>
-      <c r="L32" s="159" t="s">
-        <v>253</v>
-      </c>
-      <c r="M32" s="159"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" s="144"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E33" s="15" t="s">
@@ -22951,13 +22948,13 @@
       <c r="I33" s="62">
         <v>270</v>
       </c>
-      <c r="J33" s="144">
+      <c r="J33" s="163">
         <f>H33*I33</f>
         <v>558927</v>
       </c>
-      <c r="K33" s="144"/>
+      <c r="K33" s="163"/>
       <c r="L33" s="85" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M33" s="62">
         <v>200000</v>
@@ -22965,7 +22962,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E34" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F34" s="59">
         <f t="shared" ref="F34:F39" si="2">H34*G34</f>
@@ -22980,11 +22977,11 @@
       <c r="I34" s="62">
         <v>320</v>
       </c>
-      <c r="J34" s="144">
+      <c r="J34" s="163">
         <f t="shared" ref="J34:J39" si="3">H34*I34</f>
         <v>1478368</v>
       </c>
-      <c r="K34" s="144"/>
+      <c r="K34" s="163"/>
       <c r="L34" s="6" t="s">
         <v>153</v>
       </c>
@@ -23009,11 +23006,11 @@
       <c r="I35" s="62">
         <v>340</v>
       </c>
-      <c r="J35" s="144">
+      <c r="J35" s="163">
         <f t="shared" si="3"/>
         <v>377808</v>
       </c>
-      <c r="K35" s="144"/>
+      <c r="K35" s="163"/>
       <c r="L35" s="85" t="s">
         <v>155</v>
       </c>
@@ -23030,13 +23027,13 @@
       <c r="G36" s="59"/>
       <c r="H36" s="67"/>
       <c r="I36" s="62"/>
-      <c r="J36" s="144">
+      <c r="J36" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K36" s="144"/>
+      <c r="K36" s="163"/>
       <c r="L36" s="85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M36" s="62">
         <v>900000</v>
@@ -23051,11 +23048,11 @@
       <c r="G37" s="59"/>
       <c r="H37" s="67"/>
       <c r="I37" s="62"/>
-      <c r="J37" s="144">
+      <c r="J37" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K37" s="144"/>
+      <c r="K37" s="163"/>
       <c r="L37" s="85" t="s">
         <v>64</v>
       </c>
@@ -23072,11 +23069,11 @@
       <c r="G38" s="59"/>
       <c r="H38" s="67"/>
       <c r="I38" s="62"/>
-      <c r="J38" s="144">
+      <c r="J38" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K38" s="144"/>
+      <c r="K38" s="163"/>
       <c r="L38" s="85" t="s">
         <v>155</v>
       </c>
@@ -23084,7 +23081,7 @@
         <v>300000</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -23096,11 +23093,11 @@
       <c r="G39" s="59"/>
       <c r="H39" s="67"/>
       <c r="I39" s="62"/>
-      <c r="J39" s="144">
+      <c r="J39" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K39" s="144"/>
+      <c r="K39" s="163"/>
       <c r="L39" s="85" t="s">
         <v>131</v>
       </c>
@@ -23152,13 +23149,13 @@
         <v>7801.2</v>
       </c>
       <c r="I42" s="52"/>
-      <c r="J42" s="145">
+      <c r="J42" s="170">
         <f>SUM(J33:J39)</f>
         <v>2415103</v>
       </c>
-      <c r="K42" s="145"/>
+      <c r="K42" s="170"/>
       <c r="L42" s="52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M42" s="5">
         <f>SUM(M33:M41)</f>
@@ -23167,7 +23164,7 @@
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E43" s="52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F43" s="109" t="str">
         <f>CONCATENATE(ROUND((F42/F31)*100,2),"%")</f>
@@ -23176,10 +23173,10 @@
       <c r="G43" s="15"/>
       <c r="H43" s="58"/>
       <c r="I43" s="15"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
+      <c r="J43" s="171"/>
+      <c r="K43" s="171"/>
       <c r="L43" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M43" s="114">
         <f>J42-M42</f>
@@ -23192,11 +23189,11 @@
       <c r="M44" s="40"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="147" t="s">
-        <v>201</v>
-      </c>
-      <c r="B45" s="147"/>
-      <c r="C45" s="147"/>
+      <c r="A45" s="172" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
       <c r="D45" s="62"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
@@ -23220,10 +23217,10 @@
       </c>
       <c r="D46" s="40"/>
       <c r="F46" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -23247,7 +23244,7 @@
     <row r="50" spans="7:13" x14ac:dyDescent="0.3">
       <c r="H50" s="26"/>
       <c r="L50" s="58" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M50" s="62">
         <v>400000</v>
@@ -23256,7 +23253,7 @@
     <row r="51" spans="7:13" x14ac:dyDescent="0.3">
       <c r="K51" s="40"/>
       <c r="L51" s="58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M51" s="62">
         <v>300000</v>
@@ -23264,7 +23261,7 @@
     </row>
     <row r="52" spans="7:13" x14ac:dyDescent="0.3">
       <c r="L52" s="58" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M52" s="62">
         <v>40000</v>
@@ -23272,7 +23269,7 @@
     </row>
     <row r="53" spans="7:13" x14ac:dyDescent="0.3">
       <c r="L53" s="58" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M53" s="62">
         <v>38000</v>
@@ -23280,7 +23277,7 @@
     </row>
     <row r="54" spans="7:13" x14ac:dyDescent="0.3">
       <c r="L54" s="58" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M54" s="62">
         <v>15000</v>
@@ -23313,19 +23310,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="H16:I16"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="J42:K42"/>
@@ -23340,6 +23324,19 @@
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J40:K40"/>
     <mergeCell ref="J41:K41"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L1">
     <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
@@ -23370,7 +23367,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23394,35 +23391,35 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="161" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
+      <c r="B1" s="146" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="151">
+      <c r="H1" s="149">
         <v>45631</v>
       </c>
-      <c r="I1" s="152"/>
+      <c r="I1" s="150"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="164">
+      <c r="K1" s="151">
         <f>M2-E2</f>
         <v>528979</v>
       </c>
-      <c r="L1" s="165"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -23434,10 +23431,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="153" t="s">
-        <v>249</v>
-      </c>
-      <c r="I2" s="168"/>
+      <c r="H2" s="155" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" s="156"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -23450,25 +23447,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="155" t="s">
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="169" t="s">
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="172"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -23521,13 +23518,13 @@
         <v>45631</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E5" s="9">
         <v>265000</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G5" s="45">
         <v>45692</v>
@@ -23546,7 +23543,7 @@
         <v>45701</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M5" s="5">
         <v>526628</v>
@@ -23585,7 +23582,7 @@
         <v>45709</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M6" s="5">
         <v>1357200</v>
@@ -23624,7 +23621,7 @@
         <v>45717</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M7" s="5">
         <v>148000</v>
@@ -23640,13 +23637,13 @@
         <v>45653</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E8" s="9">
         <v>40000</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G8" s="45">
         <v>45709</v>
@@ -23675,7 +23672,7 @@
         <v>45701</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E9" s="5">
         <v>8000</v>
@@ -23808,11 +23805,11 @@
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
       <c r="F14" s="69"/>
-      <c r="G14" s="148" t="s">
+      <c r="G14" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="166"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -23833,10 +23830,10 @@
       <c r="G15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="151">
+      <c r="H15" s="149">
         <v>45653</v>
       </c>
-      <c r="I15" s="152"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -23857,10 +23854,10 @@
       <c r="G16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="153" t="s">
-        <v>255</v>
-      </c>
-      <c r="I16" s="154"/>
+      <c r="H16" s="155" t="s">
+        <v>349</v>
+      </c>
+      <c r="I16" s="167"/>
       <c r="J16" s="21">
         <v>12</v>
       </c>
@@ -23878,11 +23875,11 @@
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="155" t="s">
+      <c r="G17" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="156"/>
-      <c r="I17" s="157"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="168"/>
       <c r="J17" s="21">
         <v>13</v>
       </c>
@@ -24223,19 +24220,19 @@
         <v>88</v>
       </c>
       <c r="H32" s="93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="158" t="s">
+      <c r="J32" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="158"/>
-      <c r="L32" s="159" t="s">
-        <v>253</v>
-      </c>
-      <c r="M32" s="159"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" s="144"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E33" s="15" t="s">
@@ -24254,13 +24251,13 @@
       <c r="I33" s="62">
         <v>245</v>
       </c>
-      <c r="J33" s="144">
+      <c r="J33" s="163">
         <f>H33*I33</f>
         <v>526627.5</v>
       </c>
-      <c r="K33" s="144"/>
+      <c r="K33" s="163"/>
       <c r="L33" s="85" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M33" s="62">
         <v>200000</v>
@@ -24268,7 +24265,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E34" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F34" s="59">
         <f t="shared" ref="F34:F39" si="2">H34*G34</f>
@@ -24283,13 +24280,13 @@
       <c r="I34" s="62">
         <v>260</v>
       </c>
-      <c r="J34" s="144">
+      <c r="J34" s="163">
         <f t="shared" ref="J34:J39" si="3">H34*I34</f>
         <v>1357200</v>
       </c>
-      <c r="K34" s="144"/>
+      <c r="K34" s="163"/>
       <c r="L34" s="85" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M34" s="62">
         <v>50000</v>
@@ -24312,13 +24309,13 @@
       <c r="I35" s="62">
         <v>200</v>
       </c>
-      <c r="J35" s="144">
+      <c r="J35" s="163">
         <f t="shared" si="3"/>
         <v>148000</v>
       </c>
-      <c r="K35" s="144"/>
+      <c r="K35" s="163"/>
       <c r="L35" s="85" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M35" s="62">
         <v>200000</v>
@@ -24333,11 +24330,11 @@
       <c r="G36" s="59"/>
       <c r="H36" s="67"/>
       <c r="I36" s="62"/>
-      <c r="J36" s="144">
+      <c r="J36" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K36" s="144"/>
+      <c r="K36" s="163"/>
       <c r="L36" s="85" t="s">
         <v>143</v>
       </c>
@@ -24354,11 +24351,11 @@
       <c r="G37" s="59"/>
       <c r="H37" s="67"/>
       <c r="I37" s="62"/>
-      <c r="J37" s="144">
+      <c r="J37" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K37" s="144"/>
+      <c r="K37" s="163"/>
       <c r="L37" s="85" t="s">
         <v>64</v>
       </c>
@@ -24375,11 +24372,11 @@
       <c r="G38" s="59"/>
       <c r="H38" s="67"/>
       <c r="I38" s="62"/>
-      <c r="J38" s="144">
+      <c r="J38" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K38" s="144"/>
+      <c r="K38" s="163"/>
       <c r="L38" s="85" t="s">
         <v>155</v>
       </c>
@@ -24396,11 +24393,11 @@
       <c r="G39" s="59"/>
       <c r="H39" s="67"/>
       <c r="I39" s="62"/>
-      <c r="J39" s="144">
+      <c r="J39" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K39" s="144"/>
+      <c r="K39" s="163"/>
       <c r="L39" s="85"/>
       <c r="M39" s="62"/>
     </row>
@@ -24418,13 +24415,13 @@
         <v>8109.5</v>
       </c>
       <c r="I40" s="52"/>
-      <c r="J40" s="145">
+      <c r="J40" s="170">
         <f>SUM(J33:J39)</f>
         <v>2031827.5</v>
       </c>
-      <c r="K40" s="145"/>
+      <c r="K40" s="170"/>
       <c r="L40" s="52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M40" s="5">
         <f>SUM(M33:M39)</f>
@@ -24433,7 +24430,7 @@
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E41" s="52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F41" s="109" t="str">
         <f>CONCATENATE(ROUND((F40/F31)*100,2),"%")</f>
@@ -24442,10 +24439,10 @@
       <c r="G41" s="15"/>
       <c r="H41" s="58"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="146"/>
+      <c r="J41" s="171"/>
+      <c r="K41" s="171"/>
       <c r="L41" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M41" s="5">
         <f>J40-M40</f>
@@ -24458,11 +24455,11 @@
       <c r="M42" s="40"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="147" t="s">
-        <v>201</v>
-      </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
+      <c r="A43" s="172" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="62"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
@@ -24489,25 +24486,25 @@
       </c>
       <c r="J44" s="61"/>
       <c r="K44" s="119" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B45"/>
       <c r="F45" s="93" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G45" s="112">
         <v>34</v>
       </c>
       <c r="H45" s="93" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I45" s="112">
         <v>2000</v>
       </c>
       <c r="J45" s="112" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K45" s="124">
         <f>G47/11</f>
@@ -24517,19 +24514,19 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46"/>
       <c r="F46" s="93" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G46" s="112">
         <v>758</v>
       </c>
       <c r="H46" s="93" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I46" s="61">
         <v>110000</v>
       </c>
       <c r="J46" s="61" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K46" s="119">
         <v>1470</v>
@@ -24537,7 +24534,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F47" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G47" s="5">
         <f>(G46*G45*2)+I45</f>
@@ -24550,7 +24547,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F48" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G48" s="111">
         <f>K45*8</f>
@@ -24567,7 +24564,7 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F49" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G49" s="111">
         <f>K45*3</f>
@@ -24587,7 +24584,7 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.3">
@@ -24610,6 +24607,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:N3"/>
@@ -24618,23 +24632,6 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L1">
     <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
@@ -24668,7 +24665,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24692,35 +24689,35 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="161" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
+      <c r="B1" s="146" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="151">
+      <c r="H1" s="149">
         <v>45714</v>
       </c>
-      <c r="I1" s="152"/>
+      <c r="I1" s="150"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="164">
+      <c r="K1" s="151">
         <f>M2-E2</f>
         <v>405496</v>
       </c>
-      <c r="L1" s="165"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -24732,10 +24729,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="153" t="s">
-        <v>268</v>
-      </c>
-      <c r="I2" s="168"/>
+      <c r="H2" s="155" t="s">
+        <v>350</v>
+      </c>
+      <c r="I2" s="156"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -24748,25 +24745,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="155" t="s">
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="169" t="s">
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="172"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -24819,13 +24816,13 @@
         <v>45714</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E5" s="9">
         <v>257500</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G5" s="45">
         <v>45765</v>
@@ -24844,7 +24841,7 @@
         <v>45775</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M5" s="5">
         <v>368280</v>
@@ -24860,13 +24857,13 @@
         <v>45743</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E6" s="9">
         <v>35000</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G6" s="45">
         <v>45775</v>
@@ -24885,7 +24882,7 @@
         <v>45787</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M6" s="5">
         <v>571064</v>
@@ -24901,7 +24898,7 @@
         <v>45792</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E7" s="9">
         <v>984721</v>
@@ -24924,7 +24921,7 @@
         <v>45791</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M7" s="5">
         <v>679140</v>
@@ -24940,7 +24937,7 @@
         <v>45792</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E8" s="9">
         <v>108973</v>
@@ -24963,7 +24960,7 @@
         <v>45791</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M8" s="5">
         <v>173206</v>
@@ -25108,11 +25105,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="69"/>
-      <c r="G14" s="148" t="s">
+      <c r="G14" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="166"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -25135,10 +25132,10 @@
       <c r="G15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="151">
+      <c r="H15" s="149">
         <v>45743</v>
       </c>
-      <c r="I15" s="152"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -25161,10 +25158,10 @@
       <c r="G16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="153" t="s">
-        <v>267</v>
-      </c>
-      <c r="I16" s="154"/>
+      <c r="H16" s="155" t="s">
+        <v>351</v>
+      </c>
+      <c r="I16" s="167"/>
       <c r="J16" s="21">
         <v>12</v>
       </c>
@@ -25184,11 +25181,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="155" t="s">
+      <c r="G17" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="156"/>
-      <c r="I17" s="157"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="168"/>
       <c r="J17" s="21">
         <v>13</v>
       </c>
@@ -25523,19 +25520,19 @@
         <v>88</v>
       </c>
       <c r="H32" s="93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="158" t="s">
+      <c r="J32" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="158"/>
-      <c r="L32" s="159" t="s">
-        <v>253</v>
-      </c>
-      <c r="M32" s="159"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" s="144"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E33" s="15" t="s">
@@ -25554,13 +25551,13 @@
       <c r="I33" s="62">
         <v>220</v>
       </c>
-      <c r="J33" s="144">
+      <c r="J33" s="163">
         <f>H33*I33</f>
         <v>368280</v>
       </c>
-      <c r="K33" s="144"/>
+      <c r="K33" s="163"/>
       <c r="L33" s="85" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M33" s="62">
         <v>400000</v>
@@ -25583,13 +25580,13 @@
       <c r="I34" s="62">
         <v>260</v>
       </c>
-      <c r="J34" s="144">
+      <c r="J34" s="163">
         <f t="shared" ref="J34:J39" si="3">H34*I34</f>
         <v>571064</v>
       </c>
-      <c r="K34" s="144"/>
+      <c r="K34" s="163"/>
       <c r="L34" s="85" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M34" s="62">
         <v>200000</v>
@@ -25598,7 +25595,7 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C35" s="126"/>
       <c r="E35" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F35" s="59">
         <f t="shared" si="2"/>
@@ -25613,13 +25610,13 @@
       <c r="I35" s="62">
         <v>280</v>
       </c>
-      <c r="J35" s="144">
+      <c r="J35" s="163">
         <f t="shared" si="3"/>
         <v>679140</v>
       </c>
-      <c r="K35" s="144"/>
+      <c r="K35" s="163"/>
       <c r="L35" s="85" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M35" s="62">
         <v>250000</v>
@@ -25642,13 +25639,13 @@
       <c r="I36" s="62">
         <v>220</v>
       </c>
-      <c r="J36" s="144">
+      <c r="J36" s="163">
         <f t="shared" si="3"/>
         <v>173206</v>
       </c>
-      <c r="K36" s="144"/>
+      <c r="K36" s="163"/>
       <c r="L36" s="85" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M36" s="62">
         <v>985721</v>
@@ -25662,11 +25659,11 @@
       <c r="G37" s="59"/>
       <c r="H37" s="67"/>
       <c r="I37" s="62"/>
-      <c r="J37" s="144">
+      <c r="J37" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K37" s="144"/>
+      <c r="K37" s="163"/>
       <c r="L37" s="85"/>
       <c r="M37" s="62"/>
     </row>
@@ -25679,11 +25676,11 @@
       <c r="G38" s="59"/>
       <c r="H38" s="67"/>
       <c r="I38" s="62"/>
-      <c r="J38" s="144">
+      <c r="J38" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K38" s="144"/>
+      <c r="K38" s="163"/>
       <c r="L38" s="85"/>
       <c r="M38" s="62"/>
     </row>
@@ -25696,11 +25693,11 @@
       <c r="G39" s="59"/>
       <c r="H39" s="67"/>
       <c r="I39" s="62"/>
-      <c r="J39" s="144">
+      <c r="J39" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K39" s="144"/>
+      <c r="K39" s="163"/>
       <c r="L39" s="85"/>
       <c r="M39" s="62"/>
     </row>
@@ -25718,13 +25715,13 @@
         <v>7083.2</v>
       </c>
       <c r="I40" s="52"/>
-      <c r="J40" s="145">
+      <c r="J40" s="170">
         <f>SUM(J33:J39)</f>
         <v>1791690</v>
       </c>
-      <c r="K40" s="145"/>
+      <c r="K40" s="170"/>
       <c r="L40" s="52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M40" s="5">
         <f>SUM(M33:M39)</f>
@@ -25733,7 +25730,7 @@
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E41" s="52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F41" s="109" t="str">
         <f>CONCATENATE(ROUND((F40/F31)*100,2),"%")</f>
@@ -25742,10 +25739,10 @@
       <c r="G41" s="15"/>
       <c r="H41" s="58"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="146"/>
+      <c r="J41" s="171"/>
+      <c r="K41" s="171"/>
       <c r="L41" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M41" s="105">
         <f>J40-M40</f>
@@ -25758,11 +25755,11 @@
       <c r="M42" s="40"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="147" t="s">
-        <v>201</v>
-      </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
+      <c r="A43" s="172" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="59"/>
       <c r="E43" s="15"/>
       <c r="F43" s="3" t="e">
@@ -25794,23 +25791,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:N3"/>
@@ -25819,6 +25799,23 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L1">
     <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
@@ -25852,7 +25849,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25874,34 +25871,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="161" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="163"/>
+      <c r="A1" s="146" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148"/>
       <c r="F1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="151">
+      <c r="G1" s="149">
         <v>45840</v>
       </c>
-      <c r="H1" s="152"/>
+      <c r="H1" s="150"/>
       <c r="I1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="164">
+      <c r="J1" s="151">
         <f>L2-D2</f>
         <v>1125929.5</v>
       </c>
-      <c r="K1" s="165"/>
+      <c r="K1" s="152"/>
       <c r="L1" s="18"/>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
@@ -25913,10 +25910,10 @@
       <c r="F2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="153" t="s">
-        <v>299</v>
-      </c>
-      <c r="H2" s="168"/>
+      <c r="G2" s="155" t="s">
+        <v>352</v>
+      </c>
+      <c r="H2" s="156"/>
       <c r="I2" s="38"/>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -25929,25 +25926,25 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="155" t="s">
+      <c r="B3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="169" t="s">
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="170"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="172"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="160"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
@@ -25998,13 +25995,13 @@
         <v>45840</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D5" s="9">
         <v>300000</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F5" s="45">
         <v>45884</v>
@@ -26023,7 +26020,7 @@
         <v>45893</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L5" s="5">
         <v>521040</v>
@@ -26036,7 +26033,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D6" s="5">
         <v>160000</v>
@@ -26059,7 +26056,7 @@
         <v>45900</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L6" s="5">
         <v>756496</v>
@@ -26072,7 +26069,7 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D7" s="5">
         <v>920000</v>
@@ -26095,13 +26092,13 @@
         <v>45901</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="L7" s="5">
         <v>940405.5</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -26110,7 +26107,7 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D8" s="5">
         <v>30000</v>
@@ -26133,7 +26130,7 @@
         <v>45912</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L8" s="5">
         <v>317988</v>
@@ -26265,11 +26262,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
       <c r="E14" s="69"/>
-      <c r="F14" s="148" t="s">
+      <c r="F14" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="149"/>
-      <c r="H14" s="150"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="166"/>
       <c r="I14" s="21">
         <v>10</v>
       </c>
@@ -26289,10 +26286,10 @@
       <c r="F15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="151">
+      <c r="G15" s="149">
         <v>45840</v>
       </c>
-      <c r="H15" s="152"/>
+      <c r="H15" s="150"/>
       <c r="I15" s="21">
         <v>11</v>
       </c>
@@ -26312,10 +26309,10 @@
       <c r="F16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="153" t="s">
-        <v>302</v>
-      </c>
-      <c r="H16" s="154"/>
+      <c r="G16" s="155" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16" s="167"/>
       <c r="I16" s="21">
         <v>12</v>
       </c>
@@ -26332,11 +26329,11 @@
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="155" t="s">
+      <c r="F17" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="156"/>
-      <c r="H17" s="157"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="168"/>
       <c r="I17" s="21">
         <v>13</v>
       </c>
@@ -26661,13 +26658,13 @@
         <v>1050000</v>
       </c>
       <c r="F31" s="93" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G31" s="130">
         <v>900000</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I31" s="175">
         <v>150000</v>
@@ -26687,23 +26684,23 @@
         <v>88</v>
       </c>
       <c r="G32" s="93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="158" t="s">
+      <c r="I32" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="158"/>
-      <c r="K32" s="159" t="s">
-        <v>253</v>
-      </c>
-      <c r="L32" s="159"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" s="144"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D33" s="15" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E33" s="59">
         <f>G33*F33</f>
@@ -26718,13 +26715,13 @@
       <c r="H33" s="62">
         <v>240</v>
       </c>
-      <c r="I33" s="144">
+      <c r="I33" s="163">
         <f>G33*H33</f>
         <v>467304</v>
       </c>
-      <c r="J33" s="144"/>
+      <c r="J33" s="163"/>
       <c r="K33" s="85" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="L33" s="62">
         <v>100000</v>
@@ -26732,7 +26729,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D34" s="15" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E34" s="59">
         <f t="shared" ref="E34:E39" si="2">G34*F34</f>
@@ -26747,13 +26744,13 @@
       <c r="H34" s="62">
         <v>240</v>
       </c>
-      <c r="I34" s="144">
+      <c r="I34" s="163">
         <f t="shared" ref="I34:I39" si="3">G34*H34</f>
         <v>53736</v>
       </c>
-      <c r="J34" s="144"/>
+      <c r="J34" s="163"/>
       <c r="K34" s="85" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L34" s="62">
         <v>600000</v>
@@ -26762,7 +26759,7 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" s="126"/>
       <c r="D35" s="15" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E35" s="59">
         <f t="shared" si="2"/>
@@ -26777,13 +26774,13 @@
       <c r="H35" s="62">
         <v>265</v>
       </c>
-      <c r="I35" s="144">
+      <c r="I35" s="163">
         <f t="shared" si="3"/>
         <v>605260</v>
       </c>
-      <c r="J35" s="144"/>
+      <c r="J35" s="163"/>
       <c r="K35" s="85" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="L35" s="62">
         <v>700000</v>
@@ -26791,7 +26788,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D36" s="15" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E36" s="59">
         <f t="shared" si="2"/>
@@ -26806,11 +26803,11 @@
       <c r="H36" s="62">
         <v>265</v>
       </c>
-      <c r="I36" s="144">
+      <c r="I36" s="163">
         <f t="shared" si="3"/>
         <v>151235.5</v>
       </c>
-      <c r="J36" s="144"/>
+      <c r="J36" s="163"/>
       <c r="K36" s="85" t="s">
         <v>143</v>
       </c>
@@ -26820,7 +26817,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D37" s="15" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E37" s="59">
         <f t="shared" si="2"/>
@@ -26835,13 +26832,13 @@
       <c r="H37" s="62">
         <v>265</v>
       </c>
-      <c r="I37" s="144">
+      <c r="I37" s="163">
         <f t="shared" si="3"/>
         <v>940405.5</v>
       </c>
-      <c r="J37" s="144"/>
+      <c r="J37" s="163"/>
       <c r="K37" s="85" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L37" s="62">
         <v>16000</v>
@@ -26849,7 +26846,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D38" s="15" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E38" s="59">
         <f t="shared" si="2"/>
@@ -26864,13 +26861,13 @@
       <c r="H38" s="62">
         <v>330</v>
       </c>
-      <c r="I38" s="144">
+      <c r="I38" s="163">
         <f t="shared" si="3"/>
         <v>317988</v>
       </c>
-      <c r="J38" s="144"/>
+      <c r="J38" s="163"/>
       <c r="K38" s="85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L38" s="62">
         <v>200000</v>
@@ -26885,11 +26882,11 @@
       <c r="F39" s="59"/>
       <c r="G39" s="67"/>
       <c r="H39" s="62"/>
-      <c r="I39" s="144">
+      <c r="I39" s="163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J39" s="144"/>
+      <c r="J39" s="163"/>
       <c r="K39" s="85"/>
       <c r="L39" s="62"/>
     </row>
@@ -26907,13 +26904,13 @@
         <v>9538</v>
       </c>
       <c r="H40" s="52"/>
-      <c r="I40" s="145">
+      <c r="I40" s="170">
         <f>SUM(I33:I39)</f>
         <v>2535929</v>
       </c>
-      <c r="J40" s="145"/>
+      <c r="J40" s="170"/>
       <c r="K40" s="52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L40" s="5">
         <f>SUM(L33:L39)</f>
@@ -26922,7 +26919,7 @@
     </row>
     <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D41" s="52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E41" s="109" t="str">
         <f>CONCATENATE(ROUND((E40/E31)*100,2),"%")</f>
@@ -26931,10 +26928,10 @@
       <c r="F41" s="15"/>
       <c r="G41" s="58"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
       <c r="K41" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L41" s="5">
         <f>I40-L40</f>
@@ -26947,10 +26944,10 @@
       <c r="L42" s="40"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="147" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" s="147"/>
+      <c r="A43" s="172" t="s">
+        <v>290</v>
+      </c>
+      <c r="B43" s="172"/>
       <c r="C43" s="59"/>
       <c r="D43" s="15"/>
       <c r="E43" s="131" t="e">
@@ -26985,28 +26982,11 @@
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.3">
       <c r="I56" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:M3"/>
@@ -27015,6 +26995,23 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:K1">
     <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5203CA4E-FE75-48BE-8541-4DC3AE3B2415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAA04F7-28A8-442E-AC3C-5661C8277539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Term-1" sheetId="4" r:id="rId1"/>
@@ -1059,9 +1059,6 @@
     <t>Current bill</t>
   </si>
   <si>
-    <t>Assam</t>
-  </si>
-  <si>
     <t>Cash - 18-12-2025</t>
   </si>
   <si>
@@ -1126,6 +1123,9 @@
   </si>
   <si>
     <t>31 days</t>
+  </si>
+  <si>
+    <t>Assam salary</t>
   </si>
 </sst>
 </file>
@@ -7943,7 +7943,7 @@
   <dimension ref="A1:S140"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="4" topLeftCell="AL5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="I17" sqref="I17:I20"/>
@@ -10749,9 +10749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F529A4-AED8-468D-AD74-507461002B42}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16:H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10813,7 +10813,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="155" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H2" s="156"/>
       <c r="I2" s="38"/>
@@ -11159,7 +11159,7 @@
         <v>45995</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="D12" s="5">
         <v>30000</v>
@@ -11257,7 +11257,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="155" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H16" s="167"/>
       <c r="I16" s="21">
@@ -11714,7 +11714,7 @@
       </c>
       <c r="J35" s="163"/>
       <c r="K35" s="85" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L35" s="136">
         <v>500000</v>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="J36" s="163"/>
       <c r="K36" s="85" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L36" s="136">
         <v>500000</v>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="J37" s="163"/>
       <c r="K37" s="85" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L37" s="136">
         <v>300000</v>
@@ -12036,7 +12036,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="146" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B1" s="147"/>
       <c r="C1" s="147"/>
@@ -12075,7 +12075,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="155" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H2" s="156"/>
       <c r="I2" s="38"/>
@@ -12165,7 +12165,7 @@
         <v>288000</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F5" s="45">
         <v>46049</v>
@@ -12184,13 +12184,13 @@
         <v>46046</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -12201,7 +12201,7 @@
         <v>46016</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D6" s="5">
         <v>13000</v>
@@ -12220,13 +12220,13 @@
         <v>46049</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L6" s="5">
         <v>115277.5</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -12237,7 +12237,7 @@
         <v>46046</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D7" s="5">
         <v>250000</v>
@@ -12450,7 +12450,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="155" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H16" s="167"/>
       <c r="I16" s="21">
@@ -12807,7 +12807,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D33" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E33" s="59">
         <f>G33*F33</f>
@@ -13122,9 +13122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26C1FE6-E0E4-43F0-8D9C-DE2275D7EDC6}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:H2"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13147,7 +13147,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="146" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="147"/>
       <c r="C1" s="147"/>
@@ -13299,7 +13299,7 @@
         <v>45703</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D6" s="5">
         <v>33000</v>
@@ -14189,7 +14189,7 @@
   <sheetViews>
     <sheetView zoomScale="104" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14653,7 +14653,7 @@
         <v>Dec2025 - Jan2026</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D13" s="96">
         <f t="shared" ref="D13" si="4">IF(F13="","",E13-F13)</f>
@@ -19725,7 +19725,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="155" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I2" s="156"/>
       <c r="J2" s="38"/>
@@ -20150,7 +20150,7 @@
         <v>100</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="21">
@@ -20823,7 +20823,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="155" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I2" s="156"/>
       <c r="J2" s="38"/>
@@ -21244,7 +21244,7 @@
         <v>100</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="21">
@@ -21991,7 +21991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E508D928-09B3-4391-9F42-ECF74587CA6D}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G17" sqref="G17:I17"/>
     </sheetView>
@@ -23432,7 +23432,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="155" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I2" s="156"/>
       <c r="J2" s="38"/>
@@ -23855,7 +23855,7 @@
         <v>100</v>
       </c>
       <c r="H16" s="155" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I16" s="167"/>
       <c r="J16" s="21">
@@ -24730,7 +24730,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="155" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I2" s="156"/>
       <c r="J2" s="38"/>
@@ -25159,7 +25159,7 @@
         <v>100</v>
       </c>
       <c r="H16" s="155" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I16" s="167"/>
       <c r="J16" s="21">
@@ -25911,7 +25911,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="155" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H2" s="156"/>
       <c r="I2" s="38"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAA04F7-28A8-442E-AC3C-5661C8277539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338FF006-19A8-4846-9975-87E34640D1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Term-1" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="355">
   <si>
     <t>#</t>
   </si>
@@ -2187,11 +2187,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2237,30 +2257,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2289,15 +2285,19 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3166,7 +3166,7 @@
                   <c:v>-469722.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-289000</c:v>
+                  <c:v>-327000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3698,7 +3698,7 @@
                 <c:formatCode>"₹"\ #,##0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3302217</c:v>
+                  <c:v>3264217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4113,7 +4113,7 @@
                   <c:v>3039754.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-758722.5</c:v>
+                  <c:v>-796722.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7970,28 +7970,28 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="149">
+      <c r="H1" s="154">
         <v>45076</v>
       </c>
-      <c r="I1" s="150"/>
+      <c r="I1" s="155"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="151">
+      <c r="K1" s="156">
         <f>M2-E2</f>
         <v>-782674</v>
       </c>
-      <c r="L1" s="152"/>
+      <c r="L1" s="157"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
@@ -8000,8 +8000,8 @@
         <f>SUM(A5:A105)</f>
         <v>473100</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="159"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -8013,10 +8013,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="160" t="s">
         <v>329</v>
       </c>
-      <c r="I2" s="156"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -8029,25 +8029,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161" t="s">
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="157" t="s">
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="148"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -8340,11 +8340,11 @@
       <c r="F12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="164" t="s">
+      <c r="G12" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="165"/>
-      <c r="I12" s="166"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="165"/>
       <c r="J12" s="21">
         <v>8</v>
       </c>
@@ -8405,10 +8405,10 @@
       <c r="G14" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="155" t="s">
+      <c r="H14" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="I14" s="156"/>
+      <c r="I14" s="161"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -8434,11 +8434,11 @@
       <c r="F15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="161" t="s">
+      <c r="G15" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -8661,7 +8661,7 @@
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="49" t="str">
-        <f t="shared" ref="I18:I22" si="2">IF(ISBLANK(G22),"",CONCATENATE("(",G22-$H$13+1," days)"))</f>
+        <f t="shared" ref="I22" si="2">IF(ISBLANK(G22),"",CONCATENATE("(",G22-$H$13+1," days)"))</f>
         <v/>
       </c>
       <c r="J22" s="21">
@@ -10749,7 +10749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F529A4-AED8-468D-AD74-507461002B42}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
@@ -10773,34 +10773,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="151" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="149">
+      <c r="G1" s="154">
         <v>45918</v>
       </c>
-      <c r="H1" s="150"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="151">
+      <c r="J1" s="156">
         <f>L2-D2</f>
         <v>979350</v>
       </c>
-      <c r="K1" s="152"/>
+      <c r="K1" s="157"/>
       <c r="L1" s="18"/>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
@@ -10812,10 +10812,10 @@
       <c r="F2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="160" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="156"/>
+      <c r="H2" s="161"/>
       <c r="I2" s="38"/>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -10828,25 +10828,25 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161" t="s">
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="157" t="s">
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="160"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="148"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
@@ -11209,11 +11209,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
       <c r="E14" s="69"/>
-      <c r="F14" s="164" t="s">
+      <c r="F14" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="165"/>
-      <c r="H14" s="166"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="21">
         <v>10</v>
       </c>
@@ -11233,10 +11233,10 @@
       <c r="F15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="149">
+      <c r="G15" s="154">
         <v>45918</v>
       </c>
-      <c r="H15" s="150"/>
+      <c r="H15" s="155"/>
       <c r="I15" s="21">
         <v>11</v>
       </c>
@@ -11256,10 +11256,10 @@
       <c r="F16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="155" t="s">
+      <c r="G16" s="160" t="s">
         <v>349</v>
       </c>
-      <c r="H16" s="167"/>
+      <c r="H16" s="166"/>
       <c r="I16" s="21">
         <v>12</v>
       </c>
@@ -11276,11 +11276,11 @@
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="161" t="s">
+      <c r="F17" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="162"/>
-      <c r="H17" s="168"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="167"/>
       <c r="I17" s="21">
         <v>13</v>
       </c>
@@ -11620,14 +11620,14 @@
       <c r="H32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="169" t="s">
+      <c r="I32" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="169"/>
-      <c r="K32" s="144" t="s">
+      <c r="J32" s="168"/>
+      <c r="K32" s="169" t="s">
         <v>248</v>
       </c>
-      <c r="L32" s="145"/>
+      <c r="L32" s="170"/>
       <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -11647,11 +11647,11 @@
       <c r="H33" s="62">
         <v>240</v>
       </c>
-      <c r="I33" s="163">
+      <c r="I33" s="162">
         <f>G33*H33</f>
         <v>496056</v>
       </c>
-      <c r="J33" s="163"/>
+      <c r="J33" s="162"/>
       <c r="K33" s="85" t="s">
         <v>322</v>
       </c>
@@ -11677,11 +11677,11 @@
       <c r="H34" s="62">
         <v>300</v>
       </c>
-      <c r="I34" s="163">
+      <c r="I34" s="162">
         <f t="shared" ref="I34:I39" si="3">G34*H34</f>
         <v>644160</v>
       </c>
-      <c r="J34" s="163"/>
+      <c r="J34" s="162"/>
       <c r="K34" s="85" t="s">
         <v>143</v>
       </c>
@@ -11708,11 +11708,11 @@
       <c r="H35" s="62">
         <v>335</v>
       </c>
-      <c r="I35" s="163">
+      <c r="I35" s="162">
         <f t="shared" si="3"/>
         <v>1136588</v>
       </c>
-      <c r="J35" s="163"/>
+      <c r="J35" s="162"/>
       <c r="K35" s="85" t="s">
         <v>332</v>
       </c>
@@ -11740,11 +11740,11 @@
       <c r="H36" s="62">
         <v>285</v>
       </c>
-      <c r="I36" s="163">
+      <c r="I36" s="162">
         <f t="shared" si="3"/>
         <v>244273.5</v>
       </c>
-      <c r="J36" s="163"/>
+      <c r="J36" s="162"/>
       <c r="K36" s="85" t="s">
         <v>333</v>
       </c>
@@ -11770,11 +11770,11 @@
       <c r="H37" s="62">
         <v>335</v>
       </c>
-      <c r="I37" s="163">
+      <c r="I37" s="162">
         <f t="shared" si="3"/>
         <v>3182.5</v>
       </c>
-      <c r="J37" s="163"/>
+      <c r="J37" s="162"/>
       <c r="K37" s="85" t="s">
         <v>335</v>
       </c>
@@ -11800,11 +11800,11 @@
       <c r="H38" s="62">
         <v>290</v>
       </c>
-      <c r="I38" s="163">
+      <c r="I38" s="162">
         <f t="shared" si="3"/>
         <v>6090</v>
       </c>
-      <c r="J38" s="163"/>
+      <c r="J38" s="162"/>
       <c r="K38" s="85" t="s">
         <v>322</v>
       </c>
@@ -11822,11 +11822,11 @@
       <c r="F39" s="59"/>
       <c r="G39" s="67"/>
       <c r="H39" s="62"/>
-      <c r="I39" s="163">
+      <c r="I39" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J39" s="163"/>
+      <c r="J39" s="162"/>
       <c r="K39" s="85" t="s">
         <v>155</v>
       </c>
@@ -11849,11 +11849,11 @@
         <v>8494.5</v>
       </c>
       <c r="H40" s="52"/>
-      <c r="I40" s="170">
+      <c r="I40" s="171">
         <f>SUM(I33:I39)</f>
         <v>2530350</v>
       </c>
-      <c r="J40" s="170"/>
+      <c r="J40" s="171"/>
       <c r="K40" s="52" t="s">
         <v>176</v>
       </c>
@@ -11874,8 +11874,8 @@
       <c r="F41" s="15"/>
       <c r="G41" s="58"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
       <c r="K41" s="83" t="s">
         <v>177</v>
       </c>
@@ -11891,10 +11891,10 @@
       <c r="L42" s="40"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="B43" s="172"/>
+      <c r="B43" s="144"/>
       <c r="C43" s="59"/>
       <c r="D43" s="15"/>
       <c r="E43" s="131" t="e">
@@ -11914,10 +11914,10 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="B44" s="172"/>
+      <c r="B44" s="144"/>
       <c r="C44" s="59"/>
       <c r="D44" s="15"/>
       <c r="E44" s="131" t="e">
@@ -11955,6 +11955,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I38:J38"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -11971,15 +11980,6 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:K1">
     <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
@@ -12035,34 +12035,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="151" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="149">
+      <c r="G1" s="154">
         <v>46016</v>
       </c>
-      <c r="H1" s="150"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="151">
+      <c r="J1" s="156">
         <f>L2-D2</f>
         <v>-469722.5</v>
       </c>
-      <c r="K1" s="152"/>
+      <c r="K1" s="157"/>
       <c r="L1" s="18"/>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
@@ -12074,10 +12074,10 @@
       <c r="F2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="160" t="s">
         <v>352</v>
       </c>
-      <c r="H2" s="156"/>
+      <c r="H2" s="161"/>
       <c r="I2" s="38"/>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -12090,25 +12090,25 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161" t="s">
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="157" t="s">
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="160"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="148"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
@@ -12402,11 +12402,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
       <c r="E14" s="69"/>
-      <c r="F14" s="164" t="s">
+      <c r="F14" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="165"/>
-      <c r="H14" s="166"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="21">
         <v>10</v>
       </c>
@@ -12426,10 +12426,10 @@
       <c r="F15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="149">
+      <c r="G15" s="154">
         <v>46016</v>
       </c>
-      <c r="H15" s="150"/>
+      <c r="H15" s="155"/>
       <c r="I15" s="21">
         <v>11</v>
       </c>
@@ -12449,10 +12449,10 @@
       <c r="F16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="155" t="s">
+      <c r="G16" s="160" t="s">
         <v>353</v>
       </c>
-      <c r="H16" s="167"/>
+      <c r="H16" s="166"/>
       <c r="I16" s="21">
         <v>12</v>
       </c>
@@ -12469,11 +12469,11 @@
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="161" t="s">
+      <c r="F17" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="162"/>
-      <c r="H17" s="168"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="167"/>
       <c r="I17" s="21">
         <v>13</v>
       </c>
@@ -12795,14 +12795,14 @@
       <c r="H32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="169" t="s">
+      <c r="I32" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="169"/>
-      <c r="K32" s="144" t="s">
+      <c r="J32" s="168"/>
+      <c r="K32" s="169" t="s">
         <v>248</v>
       </c>
-      <c r="L32" s="145"/>
+      <c r="L32" s="170"/>
       <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -12822,11 +12822,11 @@
       <c r="H33" s="62">
         <v>65</v>
       </c>
-      <c r="I33" s="163">
+      <c r="I33" s="162">
         <f>G33*H33</f>
         <v>115277.5</v>
       </c>
-      <c r="J33" s="163"/>
+      <c r="J33" s="162"/>
       <c r="K33" s="85" t="s">
         <v>143</v>
       </c>
@@ -12844,11 +12844,11 @@
       <c r="F34" s="59"/>
       <c r="G34" s="67"/>
       <c r="H34" s="62"/>
-      <c r="I34" s="163">
+      <c r="I34" s="162">
         <f t="shared" ref="I34:I39" si="3">G34*H34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="163"/>
+      <c r="J34" s="162"/>
       <c r="K34" s="85"/>
       <c r="L34" s="136"/>
       <c r="M34" s="15"/>
@@ -12863,11 +12863,11 @@
       <c r="F35" s="59"/>
       <c r="G35" s="67"/>
       <c r="H35" s="62"/>
-      <c r="I35" s="163">
+      <c r="I35" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35" s="163"/>
+      <c r="J35" s="162"/>
       <c r="K35" s="85"/>
       <c r="L35" s="136"/>
       <c r="M35" s="15" t="s">
@@ -12883,11 +12883,11 @@
       <c r="F36" s="59"/>
       <c r="G36" s="67"/>
       <c r="H36" s="62"/>
-      <c r="I36" s="163">
+      <c r="I36" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J36" s="163"/>
+      <c r="J36" s="162"/>
       <c r="K36" s="2"/>
       <c r="L36" s="136"/>
       <c r="M36" s="15"/>
@@ -12901,11 +12901,11 @@
       <c r="F37" s="59"/>
       <c r="G37" s="67"/>
       <c r="H37" s="62"/>
-      <c r="I37" s="163">
+      <c r="I37" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J37" s="163"/>
+      <c r="J37" s="162"/>
       <c r="K37" s="85"/>
       <c r="L37" s="136"/>
       <c r="M37" s="15"/>
@@ -12919,11 +12919,11 @@
       <c r="F38" s="59"/>
       <c r="G38" s="67"/>
       <c r="H38" s="62"/>
-      <c r="I38" s="163">
+      <c r="I38" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J38" s="163"/>
+      <c r="J38" s="162"/>
       <c r="K38" s="85"/>
       <c r="L38" s="136"/>
       <c r="M38" s="15"/>
@@ -12937,11 +12937,11 @@
       <c r="F39" s="59"/>
       <c r="G39" s="67"/>
       <c r="H39" s="62"/>
-      <c r="I39" s="163">
+      <c r="I39" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J39" s="163"/>
+      <c r="J39" s="162"/>
       <c r="K39" s="85"/>
       <c r="L39" s="136"/>
       <c r="M39" s="15"/>
@@ -12960,11 +12960,11 @@
         <v>1773.5</v>
       </c>
       <c r="H40" s="52"/>
-      <c r="I40" s="170">
+      <c r="I40" s="171">
         <f>SUM(I33:I39)</f>
         <v>115277.5</v>
       </c>
-      <c r="J40" s="170"/>
+      <c r="J40" s="171"/>
       <c r="K40" s="52" t="s">
         <v>176</v>
       </c>
@@ -12985,8 +12985,8 @@
       <c r="F41" s="15"/>
       <c r="G41" s="58"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
       <c r="K41" s="83" t="s">
         <v>177</v>
       </c>
@@ -13002,10 +13002,10 @@
       <c r="L42" s="40"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="B43" s="172"/>
+      <c r="B43" s="144"/>
       <c r="C43" s="59"/>
       <c r="D43" s="15"/>
       <c r="E43" s="131" t="e">
@@ -13025,10 +13025,10 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="B44" s="172"/>
+      <c r="B44" s="144"/>
       <c r="C44" s="59"/>
       <c r="D44" s="15"/>
       <c r="E44" s="131" t="e">
@@ -13066,11 +13066,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="G15:H15"/>
@@ -13082,15 +13086,11 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:K1">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
@@ -13122,9 +13122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26C1FE6-E0E4-43F0-8D9C-DE2275D7EDC6}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13146,50 +13146,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="151" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="149">
+      <c r="G1" s="154">
         <v>46068</v>
       </c>
-      <c r="H1" s="150"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="151">
+      <c r="J1" s="156">
         <f>L2-D2</f>
-        <v>-289000</v>
-      </c>
-      <c r="K1" s="152"/>
+        <v>-327000</v>
+      </c>
+      <c r="K1" s="157"/>
       <c r="L1" s="18"/>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="12">
         <f>SUM(D5:D30)</f>
-        <v>289000</v>
+        <v>327000</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="155" t="str">
+      <c r="G2" s="160" t="str">
         <f ca="1">IF(ISBLANK(G1),"",CONCATENATE(_xlfn.DAYS(TODAY(), G1-1)," days"))</f>
         <v>7 days</v>
       </c>
-      <c r="H2" s="156"/>
+      <c r="H2" s="161"/>
       <c r="I2" s="38"/>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -13202,25 +13202,25 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161" t="s">
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="157" t="s">
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="160"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="148"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
@@ -13268,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>45703</v>
+        <v>46068</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>64</v>
@@ -13296,7 +13296,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>45703</v>
+        <v>46068</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>334</v>
@@ -13323,9 +13323,15 @@
       <c r="A7" s="41">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="7">
+        <v>46072</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="5">
+        <v>38000</v>
+      </c>
       <c r="E7" s="23"/>
       <c r="F7" s="45"/>
       <c r="G7" s="46"/>
@@ -13480,11 +13486,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
       <c r="E14" s="69"/>
-      <c r="F14" s="164" t="s">
+      <c r="F14" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="165"/>
-      <c r="H14" s="166"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="21">
         <v>10</v>
       </c>
@@ -13504,10 +13510,10 @@
       <c r="F15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="149">
+      <c r="G15" s="154">
         <v>46068</v>
       </c>
-      <c r="H15" s="150"/>
+      <c r="H15" s="155"/>
       <c r="I15" s="21">
         <v>11</v>
       </c>
@@ -13527,11 +13533,11 @@
       <c r="F16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="155" t="str">
+      <c r="G16" s="160" t="str">
         <f ca="1">IF(ISBLANK(G15),"",CONCATENATE(_xlfn.DAYS(TODAY(), G1-1)," days"))</f>
         <v>7 days</v>
       </c>
-      <c r="H16" s="167"/>
+      <c r="H16" s="166"/>
       <c r="I16" s="21">
         <v>12</v>
       </c>
@@ -13548,11 +13554,11 @@
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="161" t="s">
+      <c r="F17" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="162"/>
-      <c r="H17" s="168"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="167"/>
       <c r="I17" s="21">
         <v>13</v>
       </c>
@@ -13875,14 +13881,14 @@
       <c r="H32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="169" t="s">
+      <c r="I32" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="169"/>
-      <c r="K32" s="144" t="s">
+      <c r="J32" s="168"/>
+      <c r="K32" s="169" t="s">
         <v>248</v>
       </c>
-      <c r="L32" s="145"/>
+      <c r="L32" s="170"/>
       <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -13894,11 +13900,11 @@
       <c r="F33" s="59"/>
       <c r="G33" s="67"/>
       <c r="H33" s="62"/>
-      <c r="I33" s="163">
+      <c r="I33" s="162">
         <f>G33*H33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="163"/>
+      <c r="J33" s="162"/>
       <c r="K33" s="85"/>
       <c r="L33" s="136"/>
       <c r="M33" s="15"/>
@@ -13912,11 +13918,11 @@
       <c r="F34" s="59"/>
       <c r="G34" s="67"/>
       <c r="H34" s="62"/>
-      <c r="I34" s="163">
+      <c r="I34" s="162">
         <f t="shared" ref="I34:I39" si="3">G34*H34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="163"/>
+      <c r="J34" s="162"/>
       <c r="K34" s="85"/>
       <c r="L34" s="136"/>
       <c r="M34" s="15"/>
@@ -13931,11 +13937,11 @@
       <c r="F35" s="59"/>
       <c r="G35" s="67"/>
       <c r="H35" s="62"/>
-      <c r="I35" s="163">
+      <c r="I35" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35" s="163"/>
+      <c r="J35" s="162"/>
       <c r="K35" s="85"/>
       <c r="L35" s="136"/>
       <c r="M35" s="15" t="s">
@@ -13951,11 +13957,11 @@
       <c r="F36" s="59"/>
       <c r="G36" s="67"/>
       <c r="H36" s="62"/>
-      <c r="I36" s="163">
+      <c r="I36" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J36" s="163"/>
+      <c r="J36" s="162"/>
       <c r="K36" s="2"/>
       <c r="L36" s="136"/>
       <c r="M36" s="15"/>
@@ -13969,11 +13975,11 @@
       <c r="F37" s="59"/>
       <c r="G37" s="67"/>
       <c r="H37" s="62"/>
-      <c r="I37" s="163">
+      <c r="I37" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J37" s="163"/>
+      <c r="J37" s="162"/>
       <c r="K37" s="85"/>
       <c r="L37" s="136"/>
       <c r="M37" s="15"/>
@@ -13987,11 +13993,11 @@
       <c r="F38" s="59"/>
       <c r="G38" s="67"/>
       <c r="H38" s="62"/>
-      <c r="I38" s="163">
+      <c r="I38" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J38" s="163"/>
+      <c r="J38" s="162"/>
       <c r="K38" s="85"/>
       <c r="L38" s="136"/>
       <c r="M38" s="15"/>
@@ -14005,11 +14011,11 @@
       <c r="F39" s="59"/>
       <c r="G39" s="67"/>
       <c r="H39" s="62"/>
-      <c r="I39" s="163">
+      <c r="I39" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J39" s="163"/>
+      <c r="J39" s="162"/>
       <c r="K39" s="85"/>
       <c r="L39" s="136"/>
       <c r="M39" s="15"/>
@@ -14028,11 +14034,11 @@
         <v>0</v>
       </c>
       <c r="H40" s="52"/>
-      <c r="I40" s="170">
+      <c r="I40" s="171">
         <f>SUM(I33:I39)</f>
         <v>0</v>
       </c>
-      <c r="J40" s="170"/>
+      <c r="J40" s="171"/>
       <c r="K40" s="52" t="s">
         <v>176</v>
       </c>
@@ -14053,8 +14059,8 @@
       <c r="F41" s="15"/>
       <c r="G41" s="58"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
       <c r="K41" s="83" t="s">
         <v>177</v>
       </c>
@@ -14070,10 +14076,10 @@
       <c r="L42" s="40"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="B43" s="172"/>
+      <c r="B43" s="144"/>
       <c r="C43" s="59"/>
       <c r="D43" s="15"/>
       <c r="E43" s="131" t="e">
@@ -14093,10 +14099,10 @@
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="B44" s="172"/>
+      <c r="B44" s="144"/>
       <c r="C44" s="59"/>
       <c r="D44" s="15"/>
       <c r="E44" s="131" t="e">
@@ -14131,11 +14137,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="G15:H15"/>
@@ -14147,15 +14157,11 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:K1">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
@@ -14657,7 +14663,7 @@
       </c>
       <c r="D13" s="96">
         <f t="shared" ref="D13" si="4">IF(F13="","",E13-F13)</f>
-        <v>-289000</v>
+        <v>-327000</v>
       </c>
       <c r="E13" s="89">
         <f>'Term-12'!$L$2</f>
@@ -14665,7 +14671,7 @@
       </c>
       <c r="F13" s="89">
         <f>'Term-12'!$D$2</f>
-        <v>289000</v>
+        <v>327000</v>
       </c>
       <c r="G13" s="143">
         <f>MIN('Term-12'!G6:G14)</f>
@@ -14819,7 +14825,7 @@
       <c r="C25" s="181"/>
       <c r="D25" s="9">
         <f>SUM(D2:D24)</f>
-        <v>3302217</v>
+        <v>3264217</v>
       </c>
       <c r="E25" s="89">
         <f>SUM(E2:E24)</f>
@@ -14827,7 +14833,7 @@
       </c>
       <c r="F25" s="89">
         <f>SUM(F2:F24)</f>
-        <v>14118577</v>
+        <v>14156577</v>
       </c>
       <c r="G25" s="143"/>
       <c r="H25" s="89"/>
@@ -14912,7 +14918,7 @@
       </c>
       <c r="D32" s="89">
         <f>SUM(D12:D15)</f>
-        <v>-758722.5</v>
+        <v>-796722.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -14943,7 +14949,7 @@
       </c>
       <c r="D35" s="9">
         <f>SUM(D29:D34)</f>
-        <v>3302217</v>
+        <v>3264217</v>
       </c>
     </row>
   </sheetData>
@@ -15205,28 +15211,28 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="151" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="149">
+      <c r="H1" s="154">
         <v>45163</v>
       </c>
-      <c r="I1" s="150"/>
+      <c r="I1" s="155"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="151">
+      <c r="K1" s="156">
         <f>M2-E2</f>
         <v>-218110</v>
       </c>
-      <c r="L1" s="152"/>
+      <c r="L1" s="157"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
@@ -15235,8 +15241,8 @@
         <f>SUM(A5:A104)</f>
         <v>430300</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="159"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -15248,10 +15254,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="160" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="156"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -15264,25 +15270,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161" t="s">
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="157" t="s">
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="148"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -15529,11 +15535,11 @@
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="164" t="s">
+      <c r="G12" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="165"/>
-      <c r="I12" s="166"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="165"/>
       <c r="J12" s="21">
         <v>8</v>
       </c>
@@ -15554,10 +15560,10 @@
       <c r="G13" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="149">
+      <c r="H13" s="154">
         <v>45163</v>
       </c>
-      <c r="I13" s="150"/>
+      <c r="I13" s="155"/>
       <c r="J13" s="21">
         <v>9</v>
       </c>
@@ -15578,10 +15584,10 @@
       <c r="G14" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="155" t="s">
+      <c r="H14" s="160" t="s">
         <v>169</v>
       </c>
-      <c r="I14" s="156"/>
+      <c r="I14" s="161"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -15599,11 +15605,11 @@
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="161" t="s">
+      <c r="G15" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -17367,6 +17373,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:N3"/>
@@ -17375,12 +17387,6 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D106">
     <cfRule type="duplicateValues" dxfId="55" priority="6"/>
@@ -17445,28 +17451,28 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="151" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="149">
+      <c r="H1" s="154">
         <v>45163</v>
       </c>
-      <c r="I1" s="150"/>
+      <c r="I1" s="155"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="151">
+      <c r="K1" s="156">
         <f>M2-E2</f>
         <v>-470000</v>
       </c>
-      <c r="L1" s="152"/>
+      <c r="L1" s="157"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
@@ -17475,8 +17481,8 @@
         <f>SUM(A5:A104)</f>
         <v>430300</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="159"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -17488,10 +17494,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="156"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -17504,25 +17510,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161" t="s">
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="157" t="s">
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="148"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -17765,11 +17771,11 @@
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="164" t="s">
+      <c r="G12" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="165"/>
-      <c r="I12" s="166"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="165"/>
       <c r="J12" s="21">
         <v>8</v>
       </c>
@@ -17790,10 +17796,10 @@
       <c r="G13" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="149">
+      <c r="H13" s="154">
         <v>45163</v>
       </c>
-      <c r="I13" s="150"/>
+      <c r="I13" s="155"/>
       <c r="J13" s="21">
         <v>9</v>
       </c>
@@ -17814,10 +17820,10 @@
       <c r="G14" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="155" t="s">
+      <c r="H14" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="I14" s="156"/>
+      <c r="I14" s="161"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -17835,11 +17841,11 @@
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="161" t="s">
+      <c r="G15" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -19681,28 +19687,28 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="151" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="149">
+      <c r="H1" s="154">
         <v>45345</v>
       </c>
-      <c r="I1" s="150"/>
+      <c r="I1" s="155"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="151">
+      <c r="K1" s="156">
         <f>M2-E2</f>
         <v>1098545</v>
       </c>
-      <c r="L1" s="152"/>
+      <c r="L1" s="157"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
@@ -19711,8 +19717,8 @@
         <f>SUM(A5:A26)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="159"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -19724,10 +19730,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="160" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="156"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -19740,25 +19746,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161" t="s">
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="157" t="s">
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="148"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -20100,11 +20106,11 @@
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
       <c r="F14" s="69"/>
-      <c r="G14" s="164" t="s">
+      <c r="G14" s="163" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="165"/>
-      <c r="I14" s="166"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="165"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -20125,10 +20131,10 @@
       <c r="G15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="149">
+      <c r="H15" s="154">
         <v>45345</v>
       </c>
-      <c r="I15" s="150"/>
+      <c r="I15" s="155"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -20170,11 +20176,11 @@
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="161" t="s">
+      <c r="G17" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="162"/>
-      <c r="I17" s="168"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="167"/>
       <c r="J17" s="21">
         <v>13</v>
       </c>
@@ -20411,10 +20417,10 @@
       <c r="I28" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="J28" s="169" t="s">
+      <c r="J28" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="K28" s="169"/>
+      <c r="K28" s="168"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E29" s="15" t="s">
@@ -20433,11 +20439,11 @@
       <c r="I29" s="62">
         <v>0</v>
       </c>
-      <c r="J29" s="163">
+      <c r="J29" s="162">
         <f>H29*I29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="163"/>
+      <c r="K29" s="162"/>
       <c r="L29" s="6" t="s">
         <v>138</v>
       </c>
@@ -20462,11 +20468,11 @@
       <c r="I30" s="62">
         <v>200</v>
       </c>
-      <c r="J30" s="163">
+      <c r="J30" s="162">
         <f t="shared" ref="J30:J33" si="1">H30*I30</f>
         <v>432360.00000000006</v>
       </c>
-      <c r="K30" s="163"/>
+      <c r="K30" s="162"/>
       <c r="L30" s="6" t="s">
         <v>143</v>
       </c>
@@ -20491,11 +20497,11 @@
       <c r="I31" s="62">
         <v>230</v>
       </c>
-      <c r="J31" s="163">
+      <c r="J31" s="162">
         <f t="shared" si="1"/>
         <v>454020</v>
       </c>
-      <c r="K31" s="163"/>
+      <c r="K31" s="162"/>
       <c r="L31" s="6" t="s">
         <v>153</v>
       </c>
@@ -20520,11 +20526,11 @@
       <c r="I32" s="62">
         <v>250</v>
       </c>
-      <c r="J32" s="163">
+      <c r="J32" s="162">
         <f t="shared" si="1"/>
         <v>541000</v>
       </c>
-      <c r="K32" s="163"/>
+      <c r="K32" s="162"/>
       <c r="L32" s="6" t="s">
         <v>154</v>
       </c>
@@ -20549,11 +20555,11 @@
       <c r="I33" s="62">
         <v>270</v>
       </c>
-      <c r="J33" s="163">
+      <c r="J33" s="162">
         <f t="shared" si="1"/>
         <v>253179</v>
       </c>
-      <c r="K33" s="163"/>
+      <c r="K33" s="162"/>
       <c r="L33" s="6" t="s">
         <v>143</v>
       </c>
@@ -20577,11 +20583,11 @@
       <c r="I34" s="62">
         <v>275</v>
       </c>
-      <c r="J34" s="163">
+      <c r="J34" s="162">
         <f t="shared" ref="J34:J35" si="2">H34*I34</f>
         <v>1014090</v>
       </c>
-      <c r="K34" s="163"/>
+      <c r="K34" s="162"/>
       <c r="L34" s="6" t="s">
         <v>155</v>
       </c>
@@ -20605,11 +20611,11 @@
       <c r="I35" s="62">
         <v>215</v>
       </c>
-      <c r="J35" s="163">
+      <c r="J35" s="162">
         <f t="shared" si="2"/>
         <v>11395</v>
       </c>
-      <c r="K35" s="163"/>
+      <c r="K35" s="162"/>
       <c r="L35" s="6" t="s">
         <v>155</v>
       </c>
@@ -20631,11 +20637,11 @@
         <v>11018.1</v>
       </c>
       <c r="I36" s="52"/>
-      <c r="J36" s="170">
+      <c r="J36" s="171">
         <f>SUM(J29:J35)</f>
         <v>2706044</v>
       </c>
-      <c r="K36" s="170"/>
+      <c r="K36" s="171"/>
       <c r="L36" s="6" t="s">
         <v>154</v>
       </c>
@@ -20654,8 +20660,8 @@
       <c r="G37" s="15"/>
       <c r="H37" s="58"/>
       <c r="I37" s="15"/>
-      <c r="J37" s="171"/>
-      <c r="K37" s="171"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="172"/>
       <c r="L37" s="6"/>
       <c r="M37" s="26">
         <f>SUM(M29:M36)</f>
@@ -20704,6 +20710,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
@@ -20713,20 +20733,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L1">
     <cfRule type="cellIs" dxfId="41" priority="4" operator="greaterThan">
@@ -20782,35 +20788,35 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="151" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="149">
+      <c r="H1" s="154">
         <v>45477</v>
       </c>
-      <c r="I1" s="150"/>
+      <c r="I1" s="155"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="151">
+      <c r="K1" s="156">
         <f>M2-E2</f>
         <v>391120</v>
       </c>
-      <c r="L1" s="152"/>
+      <c r="L1" s="157"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="159"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -20822,10 +20828,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="160" t="s">
         <v>345</v>
       </c>
-      <c r="I2" s="156"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -20838,25 +20844,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161" t="s">
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="157" t="s">
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="148"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -21190,11 +21196,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="69"/>
-      <c r="G14" s="164" t="s">
+      <c r="G14" s="163" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="165"/>
-      <c r="I14" s="166"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="165"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -21217,10 +21223,10 @@
       <c r="G15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="149">
+      <c r="H15" s="154">
         <v>45477</v>
       </c>
-      <c r="I15" s="150"/>
+      <c r="I15" s="155"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -21266,11 +21272,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="161" t="s">
+      <c r="G17" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="162"/>
-      <c r="I17" s="168"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="167"/>
       <c r="J17" s="21">
         <v>13</v>
       </c>
@@ -21636,14 +21642,14 @@
       <c r="I32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="169" t="s">
+      <c r="J32" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="169"/>
-      <c r="L32" s="144" t="s">
+      <c r="K32" s="168"/>
+      <c r="L32" s="169" t="s">
         <v>248</v>
       </c>
-      <c r="M32" s="144"/>
+      <c r="M32" s="169"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C33" s="6" t="s">
@@ -21668,11 +21674,11 @@
       <c r="I33" s="62">
         <v>249</v>
       </c>
-      <c r="J33" s="163">
+      <c r="J33" s="162">
         <f>H33*I33</f>
         <v>1327120.2</v>
       </c>
-      <c r="K33" s="163"/>
+      <c r="K33" s="162"/>
       <c r="L33" s="85" t="s">
         <v>174</v>
       </c>
@@ -21700,11 +21706,11 @@
       <c r="I34" s="62">
         <v>124.5</v>
       </c>
-      <c r="J34" s="163">
+      <c r="J34" s="162">
         <f t="shared" ref="J34:J39" si="3">H34*I34</f>
         <v>7470</v>
       </c>
-      <c r="K34" s="163"/>
+      <c r="K34" s="162"/>
       <c r="L34" s="85" t="s">
         <v>175</v>
       </c>
@@ -21736,11 +21742,11 @@
       <c r="I35" s="62">
         <v>250</v>
       </c>
-      <c r="J35" s="163">
+      <c r="J35" s="162">
         <f t="shared" si="3"/>
         <v>267050</v>
       </c>
-      <c r="K35" s="163"/>
+      <c r="K35" s="162"/>
       <c r="L35" s="85" t="s">
         <v>175</v>
       </c>
@@ -21761,11 +21767,11 @@
       <c r="I36" s="62">
         <v>10</v>
       </c>
-      <c r="J36" s="170">
+      <c r="J36" s="171">
         <f t="shared" si="3"/>
         <v>10682</v>
       </c>
-      <c r="K36" s="170"/>
+      <c r="K36" s="171"/>
       <c r="L36" s="85" t="s">
         <v>155</v>
       </c>
@@ -21782,11 +21788,11 @@
       <c r="G37" s="59"/>
       <c r="H37" s="67"/>
       <c r="I37" s="62"/>
-      <c r="J37" s="163">
+      <c r="J37" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K37" s="163"/>
+      <c r="K37" s="162"/>
       <c r="L37" s="85" t="s">
         <v>181</v>
       </c>
@@ -21803,11 +21809,11 @@
       <c r="G38" s="59"/>
       <c r="H38" s="67"/>
       <c r="I38" s="62"/>
-      <c r="J38" s="163">
+      <c r="J38" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K38" s="163"/>
+      <c r="K38" s="162"/>
       <c r="L38" s="85" t="s">
         <v>155</v>
       </c>
@@ -21824,11 +21830,11 @@
       <c r="G39" s="59"/>
       <c r="H39" s="67"/>
       <c r="I39" s="62"/>
-      <c r="J39" s="163">
+      <c r="J39" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K39" s="163"/>
+      <c r="K39" s="162"/>
       <c r="L39" s="85"/>
       <c r="M39" s="62"/>
     </row>
@@ -21846,11 +21852,11 @@
         <v>7526.2</v>
       </c>
       <c r="I40" s="52"/>
-      <c r="J40" s="170">
+      <c r="J40" s="171">
         <f>SUM(J33:J39)</f>
         <v>1612322.2</v>
       </c>
-      <c r="K40" s="170"/>
+      <c r="K40" s="171"/>
       <c r="L40" s="85"/>
       <c r="M40" s="62"/>
     </row>
@@ -21865,8 +21871,8 @@
       <c r="G41" s="15"/>
       <c r="H41" s="58"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="172"/>
       <c r="L41" s="52" t="s">
         <v>176</v>
       </c>
@@ -21937,6 +21943,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J38:K38"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="B1:F1"/>
@@ -21953,16 +21969,6 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L1">
     <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
@@ -22017,35 +22023,35 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="151" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="149">
+      <c r="H1" s="154">
         <v>45548</v>
       </c>
-      <c r="I1" s="150"/>
+      <c r="I1" s="155"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="151">
+      <c r="K1" s="156">
         <f>M2-E2</f>
         <v>1002304</v>
       </c>
-      <c r="L1" s="152"/>
+      <c r="L1" s="157"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="159"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -22057,10 +22063,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="160" t="s">
         <v>293</v>
       </c>
-      <c r="I2" s="156"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -22073,25 +22079,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161" t="s">
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="157" t="s">
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="148"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -22465,11 +22471,11 @@
         <v>17400</v>
       </c>
       <c r="F14" s="69"/>
-      <c r="G14" s="164" t="s">
+      <c r="G14" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="165"/>
-      <c r="I14" s="166"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="165"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -22496,10 +22502,10 @@
       <c r="G15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="149">
+      <c r="H15" s="154">
         <v>45561</v>
       </c>
-      <c r="I15" s="150"/>
+      <c r="I15" s="155"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -22526,10 +22532,10 @@
       <c r="G16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="155" t="s">
+      <c r="H16" s="160" t="s">
         <v>293</v>
       </c>
-      <c r="I16" s="167"/>
+      <c r="I16" s="166"/>
       <c r="J16" s="21">
         <v>12</v>
       </c>
@@ -22553,11 +22559,11 @@
         <v>45000</v>
       </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="161" t="s">
+      <c r="G17" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="162"/>
-      <c r="I17" s="168"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="167"/>
       <c r="J17" s="21">
         <v>13</v>
       </c>
@@ -22922,14 +22928,14 @@
       <c r="I32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="169" t="s">
+      <c r="J32" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="169"/>
-      <c r="L32" s="144" t="s">
+      <c r="K32" s="168"/>
+      <c r="L32" s="169" t="s">
         <v>248</v>
       </c>
-      <c r="M32" s="144"/>
+      <c r="M32" s="169"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E33" s="15" t="s">
@@ -22948,11 +22954,11 @@
       <c r="I33" s="62">
         <v>270</v>
       </c>
-      <c r="J33" s="163">
+      <c r="J33" s="162">
         <f>H33*I33</f>
         <v>558927</v>
       </c>
-      <c r="K33" s="163"/>
+      <c r="K33" s="162"/>
       <c r="L33" s="85" t="s">
         <v>217</v>
       </c>
@@ -22977,11 +22983,11 @@
       <c r="I34" s="62">
         <v>320</v>
       </c>
-      <c r="J34" s="163">
+      <c r="J34" s="162">
         <f t="shared" ref="J34:J39" si="3">H34*I34</f>
         <v>1478368</v>
       </c>
-      <c r="K34" s="163"/>
+      <c r="K34" s="162"/>
       <c r="L34" s="6" t="s">
         <v>153</v>
       </c>
@@ -23006,11 +23012,11 @@
       <c r="I35" s="62">
         <v>340</v>
       </c>
-      <c r="J35" s="163">
+      <c r="J35" s="162">
         <f t="shared" si="3"/>
         <v>377808</v>
       </c>
-      <c r="K35" s="163"/>
+      <c r="K35" s="162"/>
       <c r="L35" s="85" t="s">
         <v>155</v>
       </c>
@@ -23027,11 +23033,11 @@
       <c r="G36" s="59"/>
       <c r="H36" s="67"/>
       <c r="I36" s="62"/>
-      <c r="J36" s="163">
+      <c r="J36" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K36" s="163"/>
+      <c r="K36" s="162"/>
       <c r="L36" s="85" t="s">
         <v>174</v>
       </c>
@@ -23048,11 +23054,11 @@
       <c r="G37" s="59"/>
       <c r="H37" s="67"/>
       <c r="I37" s="62"/>
-      <c r="J37" s="163">
+      <c r="J37" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K37" s="163"/>
+      <c r="K37" s="162"/>
       <c r="L37" s="85" t="s">
         <v>64</v>
       </c>
@@ -23069,11 +23075,11 @@
       <c r="G38" s="59"/>
       <c r="H38" s="67"/>
       <c r="I38" s="62"/>
-      <c r="J38" s="163">
+      <c r="J38" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K38" s="163"/>
+      <c r="K38" s="162"/>
       <c r="L38" s="85" t="s">
         <v>155</v>
       </c>
@@ -23093,11 +23099,11 @@
       <c r="G39" s="59"/>
       <c r="H39" s="67"/>
       <c r="I39" s="62"/>
-      <c r="J39" s="163">
+      <c r="J39" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K39" s="163"/>
+      <c r="K39" s="162"/>
       <c r="L39" s="85" t="s">
         <v>131</v>
       </c>
@@ -23149,11 +23155,11 @@
         <v>7801.2</v>
       </c>
       <c r="I42" s="52"/>
-      <c r="J42" s="170">
+      <c r="J42" s="171">
         <f>SUM(J33:J39)</f>
         <v>2415103</v>
       </c>
-      <c r="K42" s="170"/>
+      <c r="K42" s="171"/>
       <c r="L42" s="52" t="s">
         <v>176</v>
       </c>
@@ -23173,8 +23179,8 @@
       <c r="G43" s="15"/>
       <c r="H43" s="58"/>
       <c r="I43" s="15"/>
-      <c r="J43" s="171"/>
-      <c r="K43" s="171"/>
+      <c r="J43" s="172"/>
+      <c r="K43" s="172"/>
       <c r="L43" s="83" t="s">
         <v>177</v>
       </c>
@@ -23189,11 +23195,11 @@
       <c r="M44" s="40"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="172" t="s">
+      <c r="A45" s="144" t="s">
         <v>198</v>
       </c>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
       <c r="D45" s="62"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
@@ -23310,6 +23316,19 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="J42:K42"/>
@@ -23324,19 +23343,6 @@
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J40:K40"/>
     <mergeCell ref="J41:K41"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L1">
     <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
@@ -23391,35 +23397,35 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="151" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="149">
+      <c r="H1" s="154">
         <v>45631</v>
       </c>
-      <c r="I1" s="150"/>
+      <c r="I1" s="155"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="151">
+      <c r="K1" s="156">
         <f>M2-E2</f>
         <v>528979</v>
       </c>
-      <c r="L1" s="152"/>
+      <c r="L1" s="157"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="159"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -23431,10 +23437,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="160" t="s">
         <v>347</v>
       </c>
-      <c r="I2" s="156"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -23447,25 +23453,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161" t="s">
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="157" t="s">
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="148"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -23805,11 +23811,11 @@
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
       <c r="F14" s="69"/>
-      <c r="G14" s="164" t="s">
+      <c r="G14" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="165"/>
-      <c r="I14" s="166"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="165"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -23830,10 +23836,10 @@
       <c r="G15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="149">
+      <c r="H15" s="154">
         <v>45653</v>
       </c>
-      <c r="I15" s="150"/>
+      <c r="I15" s="155"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -23854,10 +23860,10 @@
       <c r="G16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="155" t="s">
+      <c r="H16" s="160" t="s">
         <v>348</v>
       </c>
-      <c r="I16" s="167"/>
+      <c r="I16" s="166"/>
       <c r="J16" s="21">
         <v>12</v>
       </c>
@@ -23875,11 +23881,11 @@
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="161" t="s">
+      <c r="G17" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="162"/>
-      <c r="I17" s="168"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="167"/>
       <c r="J17" s="21">
         <v>13</v>
       </c>
@@ -24225,14 +24231,14 @@
       <c r="I32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="169" t="s">
+      <c r="J32" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="169"/>
-      <c r="L32" s="144" t="s">
+      <c r="K32" s="168"/>
+      <c r="L32" s="169" t="s">
         <v>248</v>
       </c>
-      <c r="M32" s="144"/>
+      <c r="M32" s="169"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E33" s="15" t="s">
@@ -24251,11 +24257,11 @@
       <c r="I33" s="62">
         <v>245</v>
       </c>
-      <c r="J33" s="163">
+      <c r="J33" s="162">
         <f>H33*I33</f>
         <v>526627.5</v>
       </c>
-      <c r="K33" s="163"/>
+      <c r="K33" s="162"/>
       <c r="L33" s="85" t="s">
         <v>217</v>
       </c>
@@ -24280,11 +24286,11 @@
       <c r="I34" s="62">
         <v>260</v>
       </c>
-      <c r="J34" s="163">
+      <c r="J34" s="162">
         <f t="shared" ref="J34:J39" si="3">H34*I34</f>
         <v>1357200</v>
       </c>
-      <c r="K34" s="163"/>
+      <c r="K34" s="162"/>
       <c r="L34" s="85" t="s">
         <v>217</v>
       </c>
@@ -24309,11 +24315,11 @@
       <c r="I35" s="62">
         <v>200</v>
       </c>
-      <c r="J35" s="163">
+      <c r="J35" s="162">
         <f t="shared" si="3"/>
         <v>148000</v>
       </c>
-      <c r="K35" s="163"/>
+      <c r="K35" s="162"/>
       <c r="L35" s="85" t="s">
         <v>217</v>
       </c>
@@ -24330,11 +24336,11 @@
       <c r="G36" s="59"/>
       <c r="H36" s="67"/>
       <c r="I36" s="62"/>
-      <c r="J36" s="163">
+      <c r="J36" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K36" s="163"/>
+      <c r="K36" s="162"/>
       <c r="L36" s="85" t="s">
         <v>143</v>
       </c>
@@ -24351,11 +24357,11 @@
       <c r="G37" s="59"/>
       <c r="H37" s="67"/>
       <c r="I37" s="62"/>
-      <c r="J37" s="163">
+      <c r="J37" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K37" s="163"/>
+      <c r="K37" s="162"/>
       <c r="L37" s="85" t="s">
         <v>64</v>
       </c>
@@ -24372,11 +24378,11 @@
       <c r="G38" s="59"/>
       <c r="H38" s="67"/>
       <c r="I38" s="62"/>
-      <c r="J38" s="163">
+      <c r="J38" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K38" s="163"/>
+      <c r="K38" s="162"/>
       <c r="L38" s="85" t="s">
         <v>155</v>
       </c>
@@ -24393,11 +24399,11 @@
       <c r="G39" s="59"/>
       <c r="H39" s="67"/>
       <c r="I39" s="62"/>
-      <c r="J39" s="163">
+      <c r="J39" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K39" s="163"/>
+      <c r="K39" s="162"/>
       <c r="L39" s="85"/>
       <c r="M39" s="62"/>
     </row>
@@ -24415,11 +24421,11 @@
         <v>8109.5</v>
       </c>
       <c r="I40" s="52"/>
-      <c r="J40" s="170">
+      <c r="J40" s="171">
         <f>SUM(J33:J39)</f>
         <v>2031827.5</v>
       </c>
-      <c r="K40" s="170"/>
+      <c r="K40" s="171"/>
       <c r="L40" s="52" t="s">
         <v>176</v>
       </c>
@@ -24439,8 +24445,8 @@
       <c r="G41" s="15"/>
       <c r="H41" s="58"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="172"/>
       <c r="L41" s="83" t="s">
         <v>177</v>
       </c>
@@ -24455,11 +24461,11 @@
       <c r="M42" s="40"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="144" t="s">
         <v>198</v>
       </c>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="144"/>
       <c r="D43" s="62"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
@@ -24607,23 +24613,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:N3"/>
@@ -24632,6 +24621,23 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L1">
     <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
@@ -24689,35 +24695,35 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="151" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
       <c r="G1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="149">
+      <c r="H1" s="154">
         <v>45714</v>
       </c>
-      <c r="I1" s="150"/>
+      <c r="I1" s="155"/>
       <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="151">
+      <c r="K1" s="156">
         <f>M2-E2</f>
         <v>405496</v>
       </c>
-      <c r="L1" s="152"/>
+      <c r="L1" s="157"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="159"/>
       <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
@@ -24729,10 +24735,10 @@
       <c r="G2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="160" t="s">
         <v>349</v>
       </c>
-      <c r="I2" s="156"/>
+      <c r="I2" s="161"/>
       <c r="J2" s="38"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11" t="s">
@@ -24745,25 +24751,25 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161" t="s">
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="157" t="s">
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="148"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -25105,11 +25111,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="69"/>
-      <c r="G14" s="164" t="s">
+      <c r="G14" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="165"/>
-      <c r="I14" s="166"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="165"/>
       <c r="J14" s="21">
         <v>10</v>
       </c>
@@ -25132,10 +25138,10 @@
       <c r="G15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="149">
+      <c r="H15" s="154">
         <v>45743</v>
       </c>
-      <c r="I15" s="150"/>
+      <c r="I15" s="155"/>
       <c r="J15" s="21">
         <v>11</v>
       </c>
@@ -25158,10 +25164,10 @@
       <c r="G16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="155" t="s">
+      <c r="H16" s="160" t="s">
         <v>350</v>
       </c>
-      <c r="I16" s="167"/>
+      <c r="I16" s="166"/>
       <c r="J16" s="21">
         <v>12</v>
       </c>
@@ -25181,11 +25187,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="161" t="s">
+      <c r="G17" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="162"/>
-      <c r="I17" s="168"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="167"/>
       <c r="J17" s="21">
         <v>13</v>
       </c>
@@ -25525,14 +25531,14 @@
       <c r="I32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="169" t="s">
+      <c r="J32" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="169"/>
-      <c r="L32" s="144" t="s">
+      <c r="K32" s="168"/>
+      <c r="L32" s="169" t="s">
         <v>248</v>
       </c>
-      <c r="M32" s="144"/>
+      <c r="M32" s="169"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E33" s="15" t="s">
@@ -25551,11 +25557,11 @@
       <c r="I33" s="62">
         <v>220</v>
       </c>
-      <c r="J33" s="163">
+      <c r="J33" s="162">
         <f>H33*I33</f>
         <v>368280</v>
       </c>
-      <c r="K33" s="163"/>
+      <c r="K33" s="162"/>
       <c r="L33" s="85" t="s">
         <v>259</v>
       </c>
@@ -25580,11 +25586,11 @@
       <c r="I34" s="62">
         <v>260</v>
       </c>
-      <c r="J34" s="163">
+      <c r="J34" s="162">
         <f t="shared" ref="J34:J39" si="3">H34*I34</f>
         <v>571064</v>
       </c>
-      <c r="K34" s="163"/>
+      <c r="K34" s="162"/>
       <c r="L34" s="85" t="s">
         <v>264</v>
       </c>
@@ -25610,11 +25616,11 @@
       <c r="I35" s="62">
         <v>280</v>
       </c>
-      <c r="J35" s="163">
+      <c r="J35" s="162">
         <f t="shared" si="3"/>
         <v>679140</v>
       </c>
-      <c r="K35" s="163"/>
+      <c r="K35" s="162"/>
       <c r="L35" s="85" t="s">
         <v>265</v>
       </c>
@@ -25639,11 +25645,11 @@
       <c r="I36" s="62">
         <v>220</v>
       </c>
-      <c r="J36" s="163">
+      <c r="J36" s="162">
         <f t="shared" si="3"/>
         <v>173206</v>
       </c>
-      <c r="K36" s="163"/>
+      <c r="K36" s="162"/>
       <c r="L36" s="85" t="s">
         <v>266</v>
       </c>
@@ -25659,11 +25665,11 @@
       <c r="G37" s="59"/>
       <c r="H37" s="67"/>
       <c r="I37" s="62"/>
-      <c r="J37" s="163">
+      <c r="J37" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K37" s="163"/>
+      <c r="K37" s="162"/>
       <c r="L37" s="85"/>
       <c r="M37" s="62"/>
     </row>
@@ -25676,11 +25682,11 @@
       <c r="G38" s="59"/>
       <c r="H38" s="67"/>
       <c r="I38" s="62"/>
-      <c r="J38" s="163">
+      <c r="J38" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K38" s="163"/>
+      <c r="K38" s="162"/>
       <c r="L38" s="85"/>
       <c r="M38" s="62"/>
     </row>
@@ -25693,11 +25699,11 @@
       <c r="G39" s="59"/>
       <c r="H39" s="67"/>
       <c r="I39" s="62"/>
-      <c r="J39" s="163">
+      <c r="J39" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K39" s="163"/>
+      <c r="K39" s="162"/>
       <c r="L39" s="85"/>
       <c r="M39" s="62"/>
     </row>
@@ -25715,11 +25721,11 @@
         <v>7083.2</v>
       </c>
       <c r="I40" s="52"/>
-      <c r="J40" s="170">
+      <c r="J40" s="171">
         <f>SUM(J33:J39)</f>
         <v>1791690</v>
       </c>
-      <c r="K40" s="170"/>
+      <c r="K40" s="171"/>
       <c r="L40" s="52" t="s">
         <v>176</v>
       </c>
@@ -25739,8 +25745,8 @@
       <c r="G41" s="15"/>
       <c r="H41" s="58"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="172"/>
       <c r="L41" s="83" t="s">
         <v>177</v>
       </c>
@@ -25755,11 +25761,11 @@
       <c r="M42" s="40"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="144" t="s">
         <v>198</v>
       </c>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="144"/>
       <c r="D43" s="59"/>
       <c r="E43" s="15"/>
       <c r="F43" s="3" t="e">
@@ -25791,6 +25797,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:N3"/>
@@ -25799,23 +25822,6 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L1">
     <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
@@ -25871,34 +25877,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="151" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="149">
+      <c r="G1" s="154">
         <v>45840</v>
       </c>
-      <c r="H1" s="150"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="151">
+      <c r="J1" s="156">
         <f>L2-D2</f>
         <v>1125929.5</v>
       </c>
-      <c r="K1" s="152"/>
+      <c r="K1" s="157"/>
       <c r="L1" s="18"/>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
@@ -25910,10 +25916,10 @@
       <c r="F2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="160" t="s">
         <v>351</v>
       </c>
-      <c r="H2" s="156"/>
+      <c r="H2" s="161"/>
       <c r="I2" s="38"/>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -25926,25 +25932,25 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161" t="s">
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="157" t="s">
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="160"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="148"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
@@ -26262,11 +26268,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
       <c r="E14" s="69"/>
-      <c r="F14" s="164" t="s">
+      <c r="F14" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="165"/>
-      <c r="H14" s="166"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="21">
         <v>10</v>
       </c>
@@ -26286,10 +26292,10 @@
       <c r="F15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="149">
+      <c r="G15" s="154">
         <v>45840</v>
       </c>
-      <c r="H15" s="150"/>
+      <c r="H15" s="155"/>
       <c r="I15" s="21">
         <v>11</v>
       </c>
@@ -26309,10 +26315,10 @@
       <c r="F16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="155" t="s">
+      <c r="G16" s="160" t="s">
         <v>293</v>
       </c>
-      <c r="H16" s="167"/>
+      <c r="H16" s="166"/>
       <c r="I16" s="21">
         <v>12</v>
       </c>
@@ -26329,11 +26335,11 @@
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="161" t="s">
+      <c r="F17" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="162"/>
-      <c r="H17" s="168"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="167"/>
       <c r="I17" s="21">
         <v>13</v>
       </c>
@@ -26689,14 +26695,14 @@
       <c r="H32" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="169" t="s">
+      <c r="I32" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="169"/>
-      <c r="K32" s="144" t="s">
+      <c r="J32" s="168"/>
+      <c r="K32" s="169" t="s">
         <v>248</v>
       </c>
-      <c r="L32" s="144"/>
+      <c r="L32" s="169"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D33" s="15" t="s">
@@ -26715,11 +26721,11 @@
       <c r="H33" s="62">
         <v>240</v>
       </c>
-      <c r="I33" s="163">
+      <c r="I33" s="162">
         <f>G33*H33</f>
         <v>467304</v>
       </c>
-      <c r="J33" s="163"/>
+      <c r="J33" s="162"/>
       <c r="K33" s="85" t="s">
         <v>289</v>
       </c>
@@ -26744,11 +26750,11 @@
       <c r="H34" s="62">
         <v>240</v>
       </c>
-      <c r="I34" s="163">
+      <c r="I34" s="162">
         <f t="shared" ref="I34:I39" si="3">G34*H34</f>
         <v>53736</v>
       </c>
-      <c r="J34" s="163"/>
+      <c r="J34" s="162"/>
       <c r="K34" s="85" t="s">
         <v>292</v>
       </c>
@@ -26774,11 +26780,11 @@
       <c r="H35" s="62">
         <v>265</v>
       </c>
-      <c r="I35" s="163">
+      <c r="I35" s="162">
         <f t="shared" si="3"/>
         <v>605260</v>
       </c>
-      <c r="J35" s="163"/>
+      <c r="J35" s="162"/>
       <c r="K35" s="85" t="s">
         <v>296</v>
       </c>
@@ -26803,11 +26809,11 @@
       <c r="H36" s="62">
         <v>265</v>
       </c>
-      <c r="I36" s="163">
+      <c r="I36" s="162">
         <f t="shared" si="3"/>
         <v>151235.5</v>
       </c>
-      <c r="J36" s="163"/>
+      <c r="J36" s="162"/>
       <c r="K36" s="85" t="s">
         <v>143</v>
       </c>
@@ -26832,11 +26838,11 @@
       <c r="H37" s="62">
         <v>265</v>
       </c>
-      <c r="I37" s="163">
+      <c r="I37" s="162">
         <f t="shared" si="3"/>
         <v>940405.5</v>
       </c>
-      <c r="J37" s="163"/>
+      <c r="J37" s="162"/>
       <c r="K37" s="85" t="s">
         <v>297</v>
       </c>
@@ -26861,11 +26867,11 @@
       <c r="H38" s="62">
         <v>330</v>
       </c>
-      <c r="I38" s="163">
+      <c r="I38" s="162">
         <f t="shared" si="3"/>
         <v>317988</v>
       </c>
-      <c r="J38" s="163"/>
+      <c r="J38" s="162"/>
       <c r="K38" s="85" t="s">
         <v>299</v>
       </c>
@@ -26882,11 +26888,11 @@
       <c r="F39" s="59"/>
       <c r="G39" s="67"/>
       <c r="H39" s="62"/>
-      <c r="I39" s="163">
+      <c r="I39" s="162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J39" s="163"/>
+      <c r="J39" s="162"/>
       <c r="K39" s="85"/>
       <c r="L39" s="62"/>
     </row>
@@ -26904,11 +26910,11 @@
         <v>9538</v>
       </c>
       <c r="H40" s="52"/>
-      <c r="I40" s="170">
+      <c r="I40" s="171">
         <f>SUM(I33:I39)</f>
         <v>2535929</v>
       </c>
-      <c r="J40" s="170"/>
+      <c r="J40" s="171"/>
       <c r="K40" s="52" t="s">
         <v>176</v>
       </c>
@@ -26928,8 +26934,8 @@
       <c r="F41" s="15"/>
       <c r="G41" s="58"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
       <c r="K41" s="83" t="s">
         <v>177</v>
       </c>
@@ -26944,10 +26950,10 @@
       <c r="L42" s="40"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="B43" s="172"/>
+      <c r="B43" s="144"/>
       <c r="C43" s="59"/>
       <c r="D43" s="15"/>
       <c r="E43" s="131" t="e">
@@ -26987,6 +26993,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:M3"/>
@@ -26995,23 +27018,6 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:K1">
     <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338FF006-19A8-4846-9975-87E34640D1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C51851F-E02E-4E58-915B-AD3EBF2FA2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C51851F-E02E-4E58-915B-AD3EBF2FA2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006990F-52A0-41CB-8028-D9CB1F593CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3166,7 +3166,7 @@
                   <c:v>-469722.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-327000</c:v>
+                  <c:v>-327672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3698,7 +3698,7 @@
                 <c:formatCode>"₹"\ #,##0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3264217</c:v>
+                  <c:v>3263545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4113,7 +4113,7 @@
                   <c:v>3039754.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-796722.5</c:v>
+                  <c:v>-797394.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="J1" s="156">
         <f>L2-D2</f>
-        <v>-327000</v>
+        <v>-327672</v>
       </c>
       <c r="K1" s="157"/>
       <c r="L1" s="18"/>
@@ -13179,7 +13179,7 @@
       </c>
       <c r="D2" s="12">
         <f>SUM(D5:D30)</f>
-        <v>327000</v>
+        <v>327672</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="32" t="s">
@@ -13330,7 +13330,7 @@
         <v>96</v>
       </c>
       <c r="D7" s="5">
-        <v>38000</v>
+        <v>38672</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="45"/>
@@ -14663,7 +14663,7 @@
       </c>
       <c r="D13" s="96">
         <f t="shared" ref="D13" si="4">IF(F13="","",E13-F13)</f>
-        <v>-327000</v>
+        <v>-327672</v>
       </c>
       <c r="E13" s="89">
         <f>'Term-12'!$L$2</f>
@@ -14671,7 +14671,7 @@
       </c>
       <c r="F13" s="89">
         <f>'Term-12'!$D$2</f>
-        <v>327000</v>
+        <v>327672</v>
       </c>
       <c r="G13" s="143">
         <f>MIN('Term-12'!G6:G14)</f>
@@ -14825,7 +14825,7 @@
       <c r="C25" s="181"/>
       <c r="D25" s="9">
         <f>SUM(D2:D24)</f>
-        <v>3264217</v>
+        <v>3263545</v>
       </c>
       <c r="E25" s="89">
         <f>SUM(E2:E24)</f>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F25" s="89">
         <f>SUM(F2:F24)</f>
-        <v>14156577</v>
+        <v>14157249</v>
       </c>
       <c r="G25" s="143"/>
       <c r="H25" s="89"/>
@@ -14918,7 +14918,7 @@
       </c>
       <c r="D32" s="89">
         <f>SUM(D12:D15)</f>
-        <v>-796722.5</v>
+        <v>-797394.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -14949,7 +14949,7 @@
       </c>
       <c r="D35" s="9">
         <f>SUM(D29:D34)</f>
-        <v>3264217</v>
+        <v>3263545</v>
       </c>
     </row>
   </sheetData>
